--- a/data/trans_orig/P36B06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5283</v>
+        <v>5251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18816</v>
+        <v>18059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03586380913911588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01934978416596667</v>
+        <v>0.01923268519551083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06891965888555567</v>
+        <v>0.06614816617784296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>5858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1974</v>
+        <v>2004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12392</v>
+        <v>11618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02245741699004849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007568053947074777</v>
+        <v>0.007682149982038349</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04751017737660029</v>
+        <v>0.04454197367735489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -785,19 +785,19 @@
         <v>15649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9212</v>
+        <v>8956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24315</v>
+        <v>24977</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02931344736285251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01725518208282763</v>
+        <v>0.01677722948437668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04554711119985693</v>
+        <v>0.04678740910251689</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>34595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25694</v>
+        <v>25411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48591</v>
+        <v>47153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1267184506115723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09411455208268726</v>
+        <v>0.09307579263231801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1779834220064961</v>
+        <v>0.1727145300962667</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -835,19 +835,19 @@
         <v>15397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8695</v>
+        <v>8888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25191</v>
+        <v>25070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05902784882576073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03333398811448802</v>
+        <v>0.03407364450186987</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09657746055277661</v>
+        <v>0.09611288966406359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -856,19 +856,19 @@
         <v>49992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37926</v>
+        <v>37079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65600</v>
+        <v>65311</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09364482978802437</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07104296711609032</v>
+        <v>0.06945634726309484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1228821051009944</v>
+        <v>0.1223405010850782</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>32111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22532</v>
+        <v>23071</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44763</v>
+        <v>44537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1176193975649949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08253178209409424</v>
+        <v>0.08450509628502162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1639617998143682</v>
+        <v>0.163133475246559</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -906,19 +906,19 @@
         <v>30530</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20642</v>
+        <v>21278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43444</v>
+        <v>42939</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1170467677247098</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07913540936638677</v>
+        <v>0.08157702517549782</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1665547519026079</v>
+        <v>0.1646193227557931</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -927,19 +927,19 @@
         <v>62642</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48572</v>
+        <v>47642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79218</v>
+        <v>79290</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1173396106860163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09098426463925113</v>
+        <v>0.08924170003876634</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.148391143722463</v>
+        <v>0.1485261331222743</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>84831</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70012</v>
+        <v>70015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100234</v>
+        <v>98971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3107246177271479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2564433851976542</v>
+        <v>0.2564569683390139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3671448993488823</v>
+        <v>0.3625189455263506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -977,19 +977,19 @@
         <v>72592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56967</v>
+        <v>58170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86929</v>
+        <v>87283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2783023048959807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2183991774141954</v>
+        <v>0.2230129836231511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.333267149068156</v>
+        <v>0.3346255501119645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -998,19 +998,19 @@
         <v>157423</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>137395</v>
+        <v>137366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181471</v>
+        <v>178831</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2948830791307922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2573670711000608</v>
+        <v>0.2573126200107051</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3399301992369853</v>
+        <v>0.3349852925126452</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>111681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96743</v>
+        <v>95363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129429</v>
+        <v>129461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.409073724957169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3543587480763343</v>
+        <v>0.3493008058317271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4740808860510325</v>
+        <v>0.4742004514131108</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1048,19 +1048,19 @@
         <v>136461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119662</v>
+        <v>120460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>153673</v>
+        <v>153166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5231656615635003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4587612435592856</v>
+        <v>0.4618200635471075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5891528861250673</v>
+        <v>0.5872077390099038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>238</v>
@@ -1069,19 +1069,19 @@
         <v>248143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>220690</v>
+        <v>226008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269705</v>
+        <v>272114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4648190330323146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4133950273657608</v>
+        <v>0.4233557026432794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.505208507051454</v>
+        <v>0.5097222299551247</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>9641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4688</v>
+        <v>4797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18871</v>
+        <v>18579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01963197937283581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009546893913812769</v>
+        <v>0.009768899885867531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03842733328584066</v>
+        <v>0.03783199753852673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1194,19 +1194,19 @@
         <v>18131</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10832</v>
+        <v>11010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28897</v>
+        <v>28141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03597728461796008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02149484274306659</v>
+        <v>0.02184775866963549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05734017762845002</v>
+        <v>0.05584127189570279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1215,19 +1215,19 @@
         <v>27772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18404</v>
+        <v>18183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40105</v>
+        <v>39890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02791029141486061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01849566662327639</v>
+        <v>0.01827348803835137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04030466559761017</v>
+        <v>0.04008937868665268</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>36513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25468</v>
+        <v>25738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49617</v>
+        <v>50578</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07435238822436635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05185966837805232</v>
+        <v>0.05241032442400864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1010354562236441</v>
+        <v>0.1029915345110868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1265,19 +1265,19 @@
         <v>26480</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18033</v>
+        <v>17468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38572</v>
+        <v>37477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0525458612008649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03578308749173612</v>
+        <v>0.03466215237907985</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07653878495649731</v>
+        <v>0.0743661280827784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -1286,19 +1286,19 @@
         <v>62994</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47547</v>
+        <v>48564</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80603</v>
+        <v>78304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06330816283082467</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04778465917001525</v>
+        <v>0.04880664903892988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08100533870464852</v>
+        <v>0.07869528467709375</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>93954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77529</v>
+        <v>76427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114075</v>
+        <v>111046</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1913186221219586</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1578730740429412</v>
+        <v>0.1556286010647398</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2322917697869059</v>
+        <v>0.2261241578869512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>89</v>
@@ -1336,19 +1336,19 @@
         <v>89712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73776</v>
+        <v>73504</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>107693</v>
+        <v>106687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.178017458784511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.146396753383259</v>
+        <v>0.1458570094689967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2136982095228324</v>
+        <v>0.2117012887039454</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1357,19 +1357,19 @@
         <v>183665</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>161069</v>
+        <v>163232</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>210822</v>
+        <v>212990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1845820589940123</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1618725123060781</v>
+        <v>0.1640462896831123</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2118736658646542</v>
+        <v>0.2140529964448077</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>91750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74138</v>
+        <v>73030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108648</v>
+        <v>110534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1868313074705591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1509680135517783</v>
+        <v>0.1487124836144486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.22124072473695</v>
+        <v>0.2250807591211788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1407,19 +1407,19 @@
         <v>93028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74860</v>
+        <v>76497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111903</v>
+        <v>110643</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1845975765700032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1485474072959523</v>
+        <v>0.151795844263674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2220525111914244</v>
+        <v>0.2195512923913036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -1428,19 +1428,19 @@
         <v>184778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159162</v>
+        <v>162500</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209850</v>
+        <v>211637</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1857000027236973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1599568451159461</v>
+        <v>0.1633110902679391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2108975649334929</v>
+        <v>0.2126937227109193</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>259227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235864</v>
+        <v>236722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>281350</v>
+        <v>282742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5278657028102801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4802915856493334</v>
+        <v>0.4820391746703596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5729149967899071</v>
+        <v>0.5757498059467524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -1478,19 +1478,19 @@
         <v>276598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253772</v>
+        <v>253636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300880</v>
+        <v>297427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5488618188266609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5035675172092388</v>
+        <v>0.5032964164895553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5970443199131732</v>
+        <v>0.5901918707213913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>519</v>
@@ -1499,19 +1499,19 @@
         <v>535825</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>501563</v>
+        <v>503747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>564953</v>
+        <v>569306</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5384994840366052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5040658938977033</v>
+        <v>0.5062610743143299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5677721982059493</v>
+        <v>0.5721476603669943</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>5513</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2007</v>
+        <v>1809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13860</v>
+        <v>12416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01728979399226113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006295118739780697</v>
+        <v>0.005672583264798543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04346852499457143</v>
+        <v>0.03894139350060152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>3059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9292</v>
+        <v>8207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00911932442711888</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002804608142538961</v>
+        <v>0.002778068821107491</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02770399627464298</v>
+        <v>0.02446802169802216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1645,19 +1645,19 @@
         <v>8572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4012</v>
+        <v>4117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17196</v>
+        <v>17382</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01310111931641723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006131847081722885</v>
+        <v>0.006293012762956417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02628348547445223</v>
+        <v>0.02656819999522657</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>15199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8907</v>
+        <v>8565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24499</v>
+        <v>25724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04767015799027624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02793597732659315</v>
+        <v>0.02686141711765976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07683686602926479</v>
+        <v>0.08067748498993768</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1695,19 +1695,19 @@
         <v>5362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13272</v>
+        <v>11890</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01598483099767524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00564261246510987</v>
+        <v>0.005629708778136247</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03957021937925113</v>
+        <v>0.03544748625443633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1716,19 +1716,19 @@
         <v>20561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12570</v>
+        <v>12358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31474</v>
+        <v>30779</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.031426351473211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01921283661842454</v>
+        <v>0.01888871579196156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04810700908941091</v>
+        <v>0.0470440374673476</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>41133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30806</v>
+        <v>30685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54650</v>
+        <v>53853</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1290062510503177</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09661654757692194</v>
+        <v>0.09623730313590784</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1713994832848229</v>
+        <v>0.1689007790373463</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1766,19 +1766,19 @@
         <v>25833</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16101</v>
+        <v>17466</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36625</v>
+        <v>36866</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07701994059019272</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04800477712890633</v>
+        <v>0.05207348061432738</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.109193783950354</v>
+        <v>0.1099127814222251</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -1787,19 +1787,19 @@
         <v>66967</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52256</v>
+        <v>52955</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83346</v>
+        <v>83040</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1023549380041387</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07987122747616188</v>
+        <v>0.08093908312855377</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1273894459557363</v>
+        <v>0.1269217860956271</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>94912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79442</v>
+        <v>80003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110585</v>
+        <v>110114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2976723812503093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2491557295281839</v>
+        <v>0.250912953935882</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3468303774846713</v>
+        <v>0.3453515991072034</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -1837,19 +1837,19 @@
         <v>85844</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70057</v>
+        <v>70271</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102479</v>
+        <v>102212</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2559349148548251</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2088697815837582</v>
+        <v>0.2095059087532647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3055313211008037</v>
+        <v>0.3047355428973471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>179</v>
@@ -1858,19 +1858,19 @@
         <v>180755</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159071</v>
+        <v>160281</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205634</v>
+        <v>204072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2762752427956841</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2431316195198604</v>
+        <v>0.2449809966272715</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3143005825507713</v>
+        <v>0.311914094908354</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>162089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>144043</v>
+        <v>144296</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179640</v>
+        <v>179480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5083614157168356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4517643015743688</v>
+        <v>0.4525585552402233</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5634078879431584</v>
+        <v>0.5629058820617143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1908,19 +1908,19 @@
         <v>215315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198795</v>
+        <v>198336</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234614</v>
+        <v>231882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.641940989130188</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5926881493532886</v>
+        <v>0.591319994733326</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6994801053378058</v>
+        <v>0.6913334722842149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>372</v>
@@ -1929,19 +1929,19 @@
         <v>377404</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>350582</v>
+        <v>354643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>400017</v>
+        <v>401668</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.576842348410549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5358462339765405</v>
+        <v>0.5420533196508002</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6114056744851122</v>
+        <v>0.6139290896133293</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>3510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9468</v>
+        <v>8033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009784736476668219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002511420333141616</v>
+        <v>0.002489897134104399</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02639668057305968</v>
+        <v>0.0223960754638662</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2054,19 +2054,19 @@
         <v>4870</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1757</v>
+        <v>1774</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10475</v>
+        <v>11059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01311006040086561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004730995727549286</v>
+        <v>0.004775664691001238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0281993016426609</v>
+        <v>0.02977234001084093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2075,19 +2075,19 @@
         <v>8379</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3834</v>
+        <v>4336</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15801</v>
+        <v>16758</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01147651239646277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005250860125274134</v>
+        <v>0.005938063486205257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02164147285781506</v>
+        <v>0.02295237513564875</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>10958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5784</v>
+        <v>5688</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18770</v>
+        <v>18497</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03055101354721668</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01612560597962743</v>
+        <v>0.01585735572866945</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05233139050646124</v>
+        <v>0.0515711240706158</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2125,19 +2125,19 @@
         <v>5399</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1923</v>
+        <v>1950</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12183</v>
+        <v>13243</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01453514595443345</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00517692854556777</v>
+        <v>0.005250174018884403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03279675660748528</v>
+        <v>0.03565234441021958</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -2146,19 +2146,19 @@
         <v>16357</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9522</v>
+        <v>9375</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25553</v>
+        <v>24429</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02240285723350407</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01304096706809388</v>
+        <v>0.01284068936716918</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03499822553997946</v>
+        <v>0.03345835202759363</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>44645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33174</v>
+        <v>32438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58351</v>
+        <v>58445</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1244742854081591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09249102021851205</v>
+        <v>0.09043908487807646</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1626872230868722</v>
+        <v>0.1629483390928789</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -2196,19 +2196,19 @@
         <v>26803</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19017</v>
+        <v>17662</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37121</v>
+        <v>36495</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07215660460608346</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05119491414073515</v>
+        <v>0.04754835920689106</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09993315172781593</v>
+        <v>0.09824896564546357</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2217,19 +2217,19 @@
         <v>71448</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54515</v>
+        <v>57558</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>87345</v>
+        <v>89240</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09785739196316576</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07466475676409412</v>
+        <v>0.0788321774482304</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1196304107547807</v>
+        <v>0.1222254148800864</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>128067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110292</v>
+        <v>110329</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146748</v>
+        <v>145594</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3570607948256832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3075029678282324</v>
+        <v>0.3076049417234345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4091440796009274</v>
+        <v>0.4059258069649177</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2267,19 +2267,19 @@
         <v>117711</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101564</v>
+        <v>102902</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>135437</v>
+        <v>137206</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3168904125289334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.273420589086158</v>
+        <v>0.2770246418759363</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3646103528810565</v>
+        <v>0.3693722168297512</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -2288,19 +2288,19 @@
         <v>245778</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>221860</v>
+        <v>219508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>271062</v>
+        <v>272429</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3366239029595816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3038650431565254</v>
+        <v>0.3006432035710768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3712535827196529</v>
+        <v>0.3731252352992628</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>171491</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151142</v>
+        <v>150423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>188938</v>
+        <v>190896</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4781291697422728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4213936222517546</v>
+        <v>0.4193891101751869</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5267733931054506</v>
+        <v>0.532230578492821</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>224</v>
@@ -2338,19 +2338,19 @@
         <v>216673</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>197989</v>
+        <v>196835</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>234574</v>
+        <v>233032</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5833077765096841</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5330071041350606</v>
+        <v>0.5299000907891049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6314984240028807</v>
+        <v>0.6273482877821577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>398</v>
@@ -2359,19 +2359,19 @@
         <v>388164</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>362034</v>
+        <v>360782</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>415404</v>
+        <v>416072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5316393354472858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4958512459675858</v>
+        <v>0.4941352858989407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5689480241017749</v>
+        <v>0.5698624460484694</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>2683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7158</v>
+        <v>7116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01319766529177082</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003969167803813793</v>
+        <v>0.003912966719052204</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03520644594614096</v>
+        <v>0.03500275607311069</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2484,19 +2484,19 @@
         <v>3060</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8392</v>
+        <v>8293</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01473510766870877</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004411073742896511</v>
+        <v>0.004427179076126785</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04041109105379057</v>
+        <v>0.03993374733484057</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2505,19 +2505,19 @@
         <v>5743</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2103</v>
+        <v>2583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11614</v>
+        <v>12178</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01397454167335839</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005116611349683301</v>
+        <v>0.006285110287510402</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02825895180380904</v>
+        <v>0.02963129849347157</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>10472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5961</v>
+        <v>6109</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18733</v>
+        <v>19251</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05150583817957475</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02932024315891677</v>
+        <v>0.03005005427237747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09214249460944211</v>
+        <v>0.09468718190055966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2555,19 +2555,19 @@
         <v>11885</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6045</v>
+        <v>5908</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19911</v>
+        <v>20500</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05723301659925373</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02910968973224297</v>
+        <v>0.02844701656773092</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09587672847870288</v>
+        <v>0.09871541560495528</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -2576,19 +2576,19 @@
         <v>22357</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14216</v>
+        <v>14715</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33198</v>
+        <v>33722</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05439980657418095</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.034590965119389</v>
+        <v>0.03580390772561471</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08077848226427772</v>
+        <v>0.0820542946777698</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>56832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44199</v>
+        <v>42958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70725</v>
+        <v>69469</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.279538444723205</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2174003011321992</v>
+        <v>0.2112964074467577</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3478717738018802</v>
+        <v>0.3416927057664195</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -2626,19 +2626,19 @@
         <v>45956</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34757</v>
+        <v>34816</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59147</v>
+        <v>59406</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2212971473696137</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1673697324547812</v>
+        <v>0.1676507168366718</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2848141096377317</v>
+        <v>0.2860607297120111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>102</v>
@@ -2647,19 +2647,19 @@
         <v>102789</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>86945</v>
+        <v>85886</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121419</v>
+        <v>120859</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2501088615233852</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2115575624912728</v>
+        <v>0.2089808127808966</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2954415758674093</v>
+        <v>0.2940769785060378</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>48678</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>37386</v>
+        <v>36273</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60898</v>
+        <v>60441</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2394301442696805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1838884060021196</v>
+        <v>0.1784129422988948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2995348976532984</v>
+        <v>0.2972902001365</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -2697,19 +2697,19 @@
         <v>33758</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23847</v>
+        <v>23950</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44557</v>
+        <v>44423</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1625594913322859</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1148341834605722</v>
+        <v>0.1153302511457709</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2145594770159179</v>
+        <v>0.2139121685224608</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>84</v>
@@ -2718,19 +2718,19 @@
         <v>82436</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68779</v>
+        <v>66861</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>97398</v>
+        <v>97756</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.200587065920808</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1673546071468272</v>
+        <v>0.1626893274070855</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2369925193015737</v>
+        <v>0.2378628330331299</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>84643</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71105</v>
+        <v>71409</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99521</v>
+        <v>99583</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.416327907535769</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3497423785649734</v>
+        <v>0.3512363927365927</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4895108293334592</v>
+        <v>0.4898143825200306</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>105</v>
@@ -2768,19 +2768,19 @@
         <v>113008</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>98602</v>
+        <v>98692</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>128000</v>
+        <v>126692</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5441752370301379</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4748052693821679</v>
+        <v>0.4752374650100785</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6163707548853727</v>
+        <v>0.6100687183293075</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>190</v>
@@ -2789,19 +2789,19 @@
         <v>197651</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>177169</v>
+        <v>177433</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>215966</v>
+        <v>217957</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4809297243082674</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4310941666042865</v>
+        <v>0.431734816346232</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5254965141272265</v>
+        <v>0.5303399764355755</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>3774</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9209</v>
+        <v>9503</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01393740216387711</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003555289418361722</v>
+        <v>0.00353310460792936</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03400579195581333</v>
+        <v>0.03509085566242767</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2914,19 +2914,19 @@
         <v>9900</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4803</v>
+        <v>5006</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17077</v>
+        <v>17767</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03559406998108932</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01726943395153586</v>
+        <v>0.01799631250630078</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06139686011306546</v>
+        <v>0.06387870007044279</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2935,19 +2935,19 @@
         <v>13675</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7827</v>
+        <v>7646</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22234</v>
+        <v>22317</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02491038204289439</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01425773729545338</v>
+        <v>0.01392823794706628</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04050322274362098</v>
+        <v>0.04065299087226274</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>14960</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8894</v>
+        <v>8763</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>24844</v>
+        <v>22886</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0552411178783336</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03284245239610256</v>
+        <v>0.03235658032136785</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09173959612087734</v>
+        <v>0.08450827720081863</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2985,19 +2985,19 @@
         <v>9039</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4831</v>
+        <v>3899</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16311</v>
+        <v>16346</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03249748699735536</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01736875800961952</v>
+        <v>0.01401725325418899</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0586417147521805</v>
+        <v>0.05876757458873157</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>24</v>
@@ -3006,19 +3006,19 @@
         <v>23999</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15085</v>
+        <v>16002</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>33769</v>
+        <v>35490</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04371739658662031</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02747993806670424</v>
+        <v>0.02914953196047639</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06151512244095882</v>
+        <v>0.06465089867821386</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>30188</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21415</v>
+        <v>20665</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41485</v>
+        <v>41854</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1114731950328099</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07907698534794104</v>
+        <v>0.07630667291606058</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1531894045202892</v>
+        <v>0.1545491948670434</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -3056,19 +3056,19 @@
         <v>26571</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17513</v>
+        <v>18393</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36775</v>
+        <v>38061</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09552901801133819</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06296213684950054</v>
+        <v>0.06612779808770554</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1322162602397666</v>
+        <v>0.1368409580618796</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -3077,19 +3077,19 @@
         <v>56759</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44163</v>
+        <v>42776</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>72904</v>
+        <v>71942</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1033946145641633</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08044870442396153</v>
+        <v>0.07792180017621451</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1328054444126927</v>
+        <v>0.1310524197452886</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>74291</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>60129</v>
+        <v>61365</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>89892</v>
+        <v>89665</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2743271922220978</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2220333168353677</v>
+        <v>0.2265961017665086</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3319370107553592</v>
+        <v>0.3310965005744056</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -3127,19 +3127,19 @@
         <v>73857</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59536</v>
+        <v>60559</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>89172</v>
+        <v>90355</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2655338824592356</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2140457125250636</v>
+        <v>0.2177267493456475</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3205969377511918</v>
+        <v>0.3248488467563159</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>144</v>
@@ -3148,19 +3148,19 @@
         <v>148147</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>128144</v>
+        <v>127140</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>169083</v>
+        <v>169025</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2698718063837849</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2334318350128934</v>
+        <v>0.2316043010402019</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3080092652035272</v>
+        <v>0.3079023140447284</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>147598</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>130954</v>
+        <v>131645</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>163039</v>
+        <v>163855</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5450210927028816</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4835611924966284</v>
+        <v>0.4861121019247885</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6020385877203367</v>
+        <v>0.6050544718859387</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>154</v>
@@ -3198,19 +3198,19 @@
         <v>158777</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>141623</v>
+        <v>142741</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>175997</v>
+        <v>174724</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5708455425509815</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5091709025589995</v>
+        <v>0.513190939433864</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6327558147195661</v>
+        <v>0.6281770661476171</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>299</v>
@@ -3219,19 +3219,19 @@
         <v>306375</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>281140</v>
+        <v>282063</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>328423</v>
+        <v>329467</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5581058004225371</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5121371563237743</v>
+        <v>0.5138185607389648</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5982686355068533</v>
+        <v>0.6001705076640859</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>11926</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5702</v>
+        <v>6446</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20474</v>
+        <v>22075</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01939149645552012</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009270984375640647</v>
+        <v>0.01048064122931731</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03329035080527731</v>
+        <v>0.03589302838571498</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3344,19 +3344,19 @@
         <v>5017</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1962</v>
+        <v>1935</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11178</v>
+        <v>11012</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007873447878223675</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003079363522938558</v>
+        <v>0.00303723115871172</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01754195194645041</v>
+        <v>0.01728145156427449</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>16</v>
@@ -3365,19 +3365,19 @@
         <v>16944</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9778</v>
+        <v>9728</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>27280</v>
+        <v>27978</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01353030193869133</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007808509370548521</v>
+        <v>0.007768577360284605</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02178445563493564</v>
+        <v>0.02234150965609973</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>18574</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11202</v>
+        <v>11240</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28117</v>
+        <v>28530</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03019988651912637</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01821357207989672</v>
+        <v>0.01827542711819763</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04571592105202154</v>
+        <v>0.04638787348745218</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3415,19 +3415,19 @@
         <v>6927</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2971</v>
+        <v>2951</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14593</v>
+        <v>13756</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01087081676774731</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004662405291165662</v>
+        <v>0.004630757058293251</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02289951888780522</v>
+        <v>0.02158659645220304</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>27</v>
@@ -3436,19 +3436,19 @@
         <v>25501</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17113</v>
+        <v>17556</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>37040</v>
+        <v>36957</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02036389417355699</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01366590074988697</v>
+        <v>0.01401912918011296</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02957848726861676</v>
+        <v>0.02951195449483772</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>83377</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>66371</v>
+        <v>67403</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>103719</v>
+        <v>101686</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1355662288683052</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1079150708950985</v>
+        <v>0.109593171351211</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.168641958904984</v>
+        <v>0.1653351580178987</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>80</v>
@@ -3486,19 +3486,19 @@
         <v>79653</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>65292</v>
+        <v>64054</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>100314</v>
+        <v>97012</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1249959292766672</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1024593719908853</v>
+        <v>0.1005178507448823</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1574185737705927</v>
+        <v>0.1522370909366849</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>163</v>
@@ -3507,19 +3507,19 @@
         <v>163030</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>141073</v>
+        <v>139688</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>187600</v>
+        <v>189233</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1301873158005251</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1126537416259755</v>
+        <v>0.1115474756214736</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1498078650974329</v>
+        <v>0.1511122859153601</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>234134</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>206947</v>
+        <v>207856</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>259179</v>
+        <v>256510</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3806892168323004</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3364837801670994</v>
+        <v>0.3379620169906523</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4214103341985118</v>
+        <v>0.417071842806892</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>193</v>
@@ -3557,19 +3557,19 @@
         <v>201636</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>178024</v>
+        <v>179278</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>225556</v>
+        <v>225062</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3164186695157068</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.279365335566568</v>
+        <v>0.2813334399177371</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3539564871603194</v>
+        <v>0.3531812043589868</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>413</v>
@@ -3578,19 +3578,19 @@
         <v>435770</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>401849</v>
+        <v>401158</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>469222</v>
+        <v>471113</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3479838347532448</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3208964804214906</v>
+        <v>0.3203444786502904</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3746972206336934</v>
+        <v>0.3762074663732912</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>267016</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>240528</v>
+        <v>240845</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>292027</v>
+        <v>291395</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4341531713247478</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3910856997661936</v>
+        <v>0.3916008610288853</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4748198487186359</v>
+        <v>0.4737924931159384</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>335</v>
@@ -3628,19 +3628,19 @@
         <v>344010</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>318227</v>
+        <v>321705</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>370168</v>
+        <v>369009</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.539841136561655</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4993807187003649</v>
+        <v>0.5048391797984678</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5808898487246972</v>
+        <v>0.5790704365148744</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>599</v>
@@ -3649,19 +3649,19 @@
         <v>611026</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>577097</v>
+        <v>575143</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>643790</v>
+        <v>646919</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4879346533339818</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4608410329360492</v>
+        <v>0.4592806200660524</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5140985978145235</v>
+        <v>0.5165971004291461</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>27268</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>17794</v>
+        <v>17452</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>39055</v>
+        <v>39529</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03670413337393819</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02395114964964289</v>
+        <v>0.02349118504198801</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05256974526903126</v>
+        <v>0.05320817131656798</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>12</v>
@@ -3774,19 +3774,19 @@
         <v>13154</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7243</v>
+        <v>7693</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>22655</v>
+        <v>23755</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01681179973610453</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00925719651904207</v>
+        <v>0.009832230478191638</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02895437889851056</v>
+        <v>0.03035974901267592</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>37</v>
@@ -3795,19 +3795,19 @@
         <v>40422</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>29983</v>
+        <v>29093</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>56268</v>
+        <v>56029</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02650015853585203</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01965656759616741</v>
+        <v>0.01907313414977839</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03688802354895786</v>
+        <v>0.03673166053728515</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>45767</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>33504</v>
+        <v>33455</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>60434</v>
+        <v>62610</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06160420019708479</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04509775989194744</v>
+        <v>0.0450320180888274</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08134713722300306</v>
+        <v>0.08427623688148525</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>31</v>
@@ -3845,19 +3845,19 @@
         <v>32723</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>22179</v>
+        <v>22348</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>44301</v>
+        <v>46882</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04182155921468146</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02834593843201578</v>
+        <v>0.02856207221761919</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05661768831711422</v>
+        <v>0.05991637184691846</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>74</v>
@@ -3866,19 +3866,19 @@
         <v>78490</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>60972</v>
+        <v>61348</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>97150</v>
+        <v>97710</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05145649332214022</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0399720050910816</v>
+        <v>0.04021852400727325</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06369001552299676</v>
+        <v>0.06405698840567348</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>134333</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>114857</v>
+        <v>115366</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>157900</v>
+        <v>157240</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1808196764986938</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1546040668744914</v>
+        <v>0.1552889174153742</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.212541700189878</v>
+        <v>0.21165273427716</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>115</v>
@@ -3916,19 +3916,19 @@
         <v>119406</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>98379</v>
+        <v>98755</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>141241</v>
+        <v>139933</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.152605243412808</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.125731250513409</v>
+        <v>0.126211978344519</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1805104832322972</v>
+        <v>0.1788391759211133</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>249</v>
@@ -3937,19 +3937,19 @@
         <v>253739</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>224582</v>
+        <v>223216</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>284264</v>
+        <v>284654</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1663467961156863</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1472317509411587</v>
+        <v>0.1463362097316823</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1863578967422445</v>
+        <v>0.1866138925942821</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>187631</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>163895</v>
+        <v>165256</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>211337</v>
+        <v>213373</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2525609975570201</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2206106960035153</v>
+        <v>0.2224434200673293</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2844707620032271</v>
+        <v>0.2872114500691739</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>186</v>
@@ -3987,19 +3987,19 @@
         <v>192400</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>170541</v>
+        <v>169497</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>218159</v>
+        <v>216147</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2458934941793361</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2179578199433781</v>
+        <v>0.216622652895305</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2788151146891679</v>
+        <v>0.2762428936941679</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>371</v>
@@ -4008,19 +4008,19 @@
         <v>380030</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>346040</v>
+        <v>349740</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>415087</v>
+        <v>417181</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2491408338930976</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2268574116268547</v>
+        <v>0.2292829217731872</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2721232938925633</v>
+        <v>0.2734957475069726</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>347914</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>321475</v>
+        <v>318679</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>374835</v>
+        <v>373277</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4683109923732631</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4327218069866893</v>
+        <v>0.4289585381839228</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5045476320628077</v>
+        <v>0.5024499853995336</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>400</v>
@@ -4058,19 +4058,19 @@
         <v>424768</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>397063</v>
+        <v>396564</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>454083</v>
+        <v>454460</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.5428679034570698</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.5074602235687898</v>
+        <v>0.5068231247384365</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5803342704922323</v>
+        <v>0.5808160961463579</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>748</v>
@@ -4079,19 +4079,19 @@
         <v>772682</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>733283</v>
+        <v>734536</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>812224</v>
+        <v>813079</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5065557181332239</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4807263911997297</v>
+        <v>0.4815479843856195</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5324788226899604</v>
+        <v>0.5330395114060833</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>74106</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>57977</v>
+        <v>57954</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>95041</v>
+        <v>92932</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02263706308896276</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01771014915616418</v>
+        <v>0.01770292683570138</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02903192798216335</v>
+        <v>0.02838784786091489</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>62</v>
@@ -4204,19 +4204,19 @@
         <v>63049</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>49776</v>
+        <v>49267</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>80861</v>
+        <v>81184</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01866923044671853</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0147390912339077</v>
+        <v>0.014588260660082</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02394354015809129</v>
+        <v>0.02403924686130665</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>133</v>
@@ -4225,19 +4225,19 @@
         <v>137155</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>114447</v>
+        <v>114430</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>162686</v>
+        <v>163787</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02062227594292272</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01720787844786798</v>
+        <v>0.0172053830011654</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02446099748269104</v>
+        <v>0.02462646900479864</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>187038</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>160773</v>
+        <v>163955</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>214297</v>
+        <v>219366</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05713393358480894</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04911086754620883</v>
+        <v>0.05008297250891716</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.0654607560825945</v>
+        <v>0.06700903563829967</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>110</v>
@@ -4275,19 +4275,19 @@
         <v>113213</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>92617</v>
+        <v>94699</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>135845</v>
+        <v>138077</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.03352310567325092</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02742448251367718</v>
+        <v>0.02804091576828992</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04022451328318728</v>
+        <v>0.04088552173940645</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>294</v>
@@ -4296,19 +4296,19 @@
         <v>300251</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>266505</v>
+        <v>271567</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>333388</v>
+        <v>336731</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.04514482091984934</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.04007097805963238</v>
+        <v>0.04083202192745165</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.05012726296433984</v>
+        <v>0.05062986262077465</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>516574</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>473243</v>
+        <v>474105</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>557930</v>
+        <v>557945</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1577966028534657</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1445604598619452</v>
+        <v>0.1448235949463249</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1704295678912087</v>
+        <v>0.1704339942374989</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>440</v>
@@ -4346,19 +4346,19 @@
         <v>444465</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>408345</v>
+        <v>405748</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>488519</v>
+        <v>486766</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1316088977983254</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1209135471987036</v>
+        <v>0.120144682878876</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1446536528872455</v>
+        <v>0.1441347106904677</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>949</v>
@@ -4367,19 +4367,19 @@
         <v>961039</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>907923</v>
+        <v>907915</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1024938</v>
+        <v>1016248</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1444990028066196</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1365126528172702</v>
+        <v>0.1365114375851447</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1541066689013366</v>
+        <v>0.1528001717769665</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>944294</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>896181</v>
+        <v>893752</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>999396</v>
+        <v>992330</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2884510666534963</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2737540171136866</v>
+        <v>0.2730122837051124</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3052829617082556</v>
+        <v>0.3031245565041444</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>852</v>
@@ -4417,19 +4417,19 @@
         <v>870825</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>821529</v>
+        <v>821968</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>919158</v>
+        <v>923883</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2578569248226917</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.243260098915253</v>
+        <v>0.2433901454853151</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2721688886469132</v>
+        <v>0.2735679957042363</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1767</v>
@@ -4438,19 +4438,19 @@
         <v>1815119</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1743412</v>
+        <v>1748689</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1894359</v>
+        <v>1890639</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2729159649335894</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2621344253691106</v>
+        <v>0.2629277493887835</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.284830330568197</v>
+        <v>0.2842710121528773</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>1551659</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1494908</v>
+        <v>1495695</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1608410</v>
+        <v>1606654</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4739813338192663</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4566458179377809</v>
+        <v>0.4568862245678326</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4913168865691118</v>
+        <v>0.4907806166780536</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1831</v>
@@ -4488,19 +4488,19 @@
         <v>1885611</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1832242</v>
+        <v>1826592</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1947350</v>
+        <v>1939167</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5583418412590134</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.5425389307739784</v>
+        <v>0.5408660012248312</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5766232823267281</v>
+        <v>0.5742002409764182</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>3363</v>
@@ -4509,19 +4509,19 @@
         <v>3437270</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>3359844</v>
+        <v>3359202</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>3516693</v>
+        <v>3520563</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.5168179353970189</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.5051763927080075</v>
+        <v>0.5050799193207782</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.5287597377369444</v>
+        <v>0.5293416324904602</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>21431</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13832</v>
+        <v>13820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31792</v>
+        <v>32041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07271130461175537</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04693131998289595</v>
+        <v>0.04688981999625635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1078645938668801</v>
+        <v>0.1087091978243215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4878,19 +4878,19 @@
         <v>24991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16628</v>
+        <v>16262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36898</v>
+        <v>37914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08768569678035093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05834118860236963</v>
+        <v>0.05705844864260889</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1294632776182612</v>
+        <v>0.1330285705525229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4899,19 +4899,19 @@
         <v>46422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33769</v>
+        <v>34376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61515</v>
+        <v>63627</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08007282039370134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05824775270556475</v>
+        <v>0.05929463579434816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.106107688384933</v>
+        <v>0.1097508869370049</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>21835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14699</v>
+        <v>13977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32869</v>
+        <v>32304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07408271372668451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04987165989661575</v>
+        <v>0.0474220624033939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1115185211668087</v>
+        <v>0.1096016602204172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4949,19 +4949,19 @@
         <v>11943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6194</v>
+        <v>5899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19602</v>
+        <v>20932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04190278793910221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02173199406226929</v>
+        <v>0.02069708801227629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06877719356884626</v>
+        <v>0.07344342444595243</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -4970,19 +4970,19 @@
         <v>33778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23982</v>
+        <v>23622</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46268</v>
+        <v>47093</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0582628374418927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04136569129441715</v>
+        <v>0.04074490354336494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07980776826753416</v>
+        <v>0.08122984646927173</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>31218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22160</v>
+        <v>22518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43476</v>
+        <v>44067</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1059176985501834</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07518410043687694</v>
+        <v>0.0764008224143683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1475061947752232</v>
+        <v>0.1495110396999044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5020,19 +5020,19 @@
         <v>27179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17706</v>
+        <v>17663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38752</v>
+        <v>38293</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09536389119411755</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06212368436417917</v>
+        <v>0.06197287005271027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1359707272620799</v>
+        <v>0.1343574368363869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -5041,19 +5041,19 @@
         <v>58397</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44183</v>
+        <v>45190</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74592</v>
+        <v>75703</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1007293731386029</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07621055552407319</v>
+        <v>0.07794810667471504</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1286644758333079</v>
+        <v>0.1305797685322516</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>34440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24524</v>
+        <v>22975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47097</v>
+        <v>46448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1168492385059792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08320478078868865</v>
+        <v>0.07795106501291947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1597929309702699</v>
+        <v>0.1575895560019364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5091,19 +5091,19 @@
         <v>30106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19579</v>
+        <v>20741</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43866</v>
+        <v>43987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1056321725302612</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06869760236364041</v>
+        <v>0.07277452684649119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1539123670900882</v>
+        <v>0.1543379293627342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -5112,19 +5112,19 @@
         <v>64546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50232</v>
+        <v>49727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83247</v>
+        <v>82531</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1113348505243052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08664513560624691</v>
+        <v>0.08577387091669683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1435918774960729</v>
+        <v>0.1423573867816346</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>185814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>168986</v>
+        <v>168099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>202031</v>
+        <v>202730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6304390446053975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5733430529419355</v>
+        <v>0.570333977850652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6854593099402239</v>
+        <v>0.6878325442842176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>171</v>
@@ -5162,19 +5162,19 @@
         <v>190787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>171632</v>
+        <v>172486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>206743</v>
+        <v>207560</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6694154515561681</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6022051620156031</v>
+        <v>0.605200748545502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7253986080782513</v>
+        <v>0.728266397819365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>347</v>
@@ -5183,19 +5183,19 @@
         <v>376602</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>353359</v>
+        <v>352570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>399744</v>
+        <v>399023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6496001185014979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6095089256540962</v>
+        <v>0.6081469362009105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6895179127705706</v>
+        <v>0.6882752248821346</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>17160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10359</v>
+        <v>9695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26699</v>
+        <v>25743</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03401438129150023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02053444107451383</v>
+        <v>0.01921705455995479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05292280069754539</v>
+        <v>0.05102798909311829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5308,19 +5308,19 @@
         <v>14762</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8062</v>
+        <v>7935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24369</v>
+        <v>24997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02818382784461933</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01539174133127355</v>
+        <v>0.01514971995958821</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0465262246517433</v>
+        <v>0.04772501575334896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5329,19 +5329,19 @@
         <v>31922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21714</v>
+        <v>22018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44146</v>
+        <v>43650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03104444683637117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02111709643768967</v>
+        <v>0.02141321065503636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04293270719790495</v>
+        <v>0.04245054197064359</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>15926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9913</v>
+        <v>9394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25452</v>
+        <v>25423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03156803546858306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01964884723412467</v>
+        <v>0.01862019321090198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05045038135102636</v>
+        <v>0.0503940922119484</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5379,19 +5379,19 @@
         <v>14742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8057</v>
+        <v>7969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23299</v>
+        <v>24474</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0281463663257879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01538218296647882</v>
+        <v>0.01521578592118355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04448320496713518</v>
+        <v>0.046726208246778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -5400,19 +5400,19 @@
         <v>30668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20701</v>
+        <v>22033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42863</v>
+        <v>42017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02982512492435753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02013267803352228</v>
+        <v>0.02142738363836591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0416857525008271</v>
+        <v>0.04086285970745659</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>41167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28716</v>
+        <v>29930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54406</v>
+        <v>56061</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08160086018258501</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05692119943616768</v>
+        <v>0.05932829232441685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1078437102728947</v>
+        <v>0.1111246501040177</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -5450,19 +5450,19 @@
         <v>34193</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24686</v>
+        <v>24241</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46897</v>
+        <v>46846</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06528281942353487</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04713199646844285</v>
+        <v>0.04628202067371883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08953815936866127</v>
+        <v>0.08944044032894556</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>71</v>
@@ -5471,19 +5471,19 @@
         <v>75359</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59211</v>
+        <v>59718</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>93882</v>
+        <v>95983</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07328886854542245</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05758401793925969</v>
+        <v>0.05807728826036391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09130272115452706</v>
+        <v>0.09334542068830423</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>107343</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86625</v>
+        <v>89367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127376</v>
+        <v>128267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2127760699549592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1717085818810806</v>
+        <v>0.1771448406265969</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2524858979209557</v>
+        <v>0.2542530271342444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -5521,19 +5521,19 @@
         <v>124811</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104953</v>
+        <v>103790</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145506</v>
+        <v>145596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.238294936784838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2003818200175273</v>
+        <v>0.1981621233454471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2778075160496039</v>
+        <v>0.2779793154310247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -5542,19 +5542,19 @@
         <v>232153</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204332</v>
+        <v>200863</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>260847</v>
+        <v>258830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2257747265223647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1987174591200446</v>
+        <v>0.1953439345139791</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2536800110915718</v>
+        <v>0.251718587016813</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>322892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>300641</v>
+        <v>298394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>345350</v>
+        <v>344884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6400406531023726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.595933296247929</v>
+        <v>0.5914799056749765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6845577185145094</v>
+        <v>0.6836340229573861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -5592,19 +5592,19 @@
         <v>335258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312850</v>
+        <v>310083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>355854</v>
+        <v>358228</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6400920496212199</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5973099897220074</v>
+        <v>0.5920270257360147</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6794147933843625</v>
+        <v>0.6839470496275218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>605</v>
@@ -5613,19 +5613,19 @@
         <v>658150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>628857</v>
+        <v>625837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>691048</v>
+        <v>691133</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6400668331714842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6115783440115087</v>
+        <v>0.6086420708119217</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6720613564452368</v>
+        <v>0.6721439268674848</v>
       </c>
     </row>
     <row r="15">
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4762</v>
+        <v>4770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002939154759282787</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01469497663993525</v>
+        <v>0.0147187373083714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5738,19 +5738,19 @@
         <v>2947</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7892</v>
+        <v>7872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008666056020741804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.002845257832995657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02320805854250825</v>
+        <v>0.02314981090322716</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5762,16 +5762,16 @@
         <v>980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9839</v>
+        <v>8854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00587154439095282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001475328383561163</v>
+        <v>0.001475608134206682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01481615696904397</v>
+        <v>0.0133332104288829</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>7732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3789</v>
+        <v>3750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14605</v>
+        <v>14419</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02386070350338102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01169163574559472</v>
+        <v>0.01157192564993256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04507114045555639</v>
+        <v>0.04449579680692626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9597</v>
+        <v>12444</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005644859522419469</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02822380614836881</v>
+        <v>0.0365953092816789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -5830,19 +5830,19 @@
         <v>9651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4745</v>
+        <v>4737</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18150</v>
+        <v>17289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01453350375203031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007145247435700298</v>
+        <v>0.00713370131601806</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02733087836317219</v>
+        <v>0.02603455033749979</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>29888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21171</v>
+        <v>21162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40978</v>
+        <v>43099</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09223413199761436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06533226195554913</v>
+        <v>0.06530556874949799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1264588027754256</v>
+        <v>0.1330026406807566</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -5880,19 +5880,19 @@
         <v>18885</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11780</v>
+        <v>11286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29418</v>
+        <v>28777</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05553809346190999</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03464454009423762</v>
+        <v>0.03318964337329212</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08651341143478428</v>
+        <v>0.08462835829936417</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -5901,19 +5901,19 @@
         <v>48773</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>36077</v>
+        <v>36580</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63001</v>
+        <v>63534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07344437502212062</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0543268516800031</v>
+        <v>0.05508309066654244</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09486954590385263</v>
+        <v>0.09567228311842225</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>60671</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48748</v>
+        <v>48476</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76684</v>
+        <v>76535</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1872292063377733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1504363010956305</v>
+        <v>0.1495959081351456</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2366447754585206</v>
+        <v>0.2361849167069656</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -5951,19 +5951,19 @@
         <v>33560</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24015</v>
+        <v>22816</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46710</v>
+        <v>46465</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09869689937422396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07062460832081205</v>
+        <v>0.06709882084688432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1373695941525042</v>
+        <v>0.136647181384435</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -5972,19 +5972,19 @@
         <v>94231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>77353</v>
+        <v>76700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116409</v>
+        <v>114999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1418973231508087</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1164816191217062</v>
+        <v>0.1154985357210964</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1752935229703324</v>
+        <v>0.1731704190295996</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>224803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204810</v>
+        <v>207431</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238649</v>
+        <v>240316</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6937368034019484</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6320391605023714</v>
+        <v>0.6401273209945393</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7364663798907938</v>
+        <v>0.7416104291416512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -6022,19 +6022,19 @@
         <v>282723</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266732</v>
+        <v>265453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>295061</v>
+        <v>295674</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8314540916207048</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7844278504003476</v>
+        <v>0.7806674891213016</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8677407208074029</v>
+        <v>0.8695426666033266</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>482</v>
@@ -6043,19 +6043,19 @@
         <v>507525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>484691</v>
+        <v>483879</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528517</v>
+        <v>529474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7642532536840876</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7298683105927994</v>
+        <v>0.7286459321549975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7958641614010624</v>
+        <v>0.7973047411031304</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>9476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4199</v>
+        <v>4210</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18660</v>
+        <v>17922</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02533763073437483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01122882096166562</v>
+        <v>0.01125778810681375</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04989530572833989</v>
+        <v>0.04792186931611832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -6168,19 +6168,19 @@
         <v>5053</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1861</v>
+        <v>1982</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11359</v>
+        <v>11067</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01299016592843139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004785315846588042</v>
+        <v>0.005096974726678537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02920308555632139</v>
+        <v>0.02845315068749995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6189,19 +6189,19 @@
         <v>14528</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8058</v>
+        <v>8303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24378</v>
+        <v>23576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01904276862275965</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01056244688181165</v>
+        <v>0.01088331371576434</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03195328218866329</v>
+        <v>0.03090242976563399</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>15950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9131</v>
+        <v>9159</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25028</v>
+        <v>26063</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04264816105946546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02441608609079945</v>
+        <v>0.02449096645593495</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06692253531627387</v>
+        <v>0.06969116518094257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -6239,19 +6239,19 @@
         <v>7858</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3697</v>
+        <v>3089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15118</v>
+        <v>14766</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02020285004136142</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009505544105676752</v>
+        <v>0.007942565454432202</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03886789394755304</v>
+        <v>0.03796310616210995</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -6260,19 +6260,19 @@
         <v>23808</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15176</v>
+        <v>14666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35615</v>
+        <v>35089</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03120531508809877</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01989153689653122</v>
+        <v>0.01922282883398849</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04668116342875966</v>
+        <v>0.04599174469887943</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>40613</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29361</v>
+        <v>29661</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55320</v>
+        <v>54577</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1085971127058804</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0785102575522045</v>
+        <v>0.07931068832770703</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1479218073730456</v>
+        <v>0.1459337573402114</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -6310,19 +6310,19 @@
         <v>15264</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8383</v>
+        <v>8873</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23953</v>
+        <v>24915</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03924502910681338</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02155406212860821</v>
+        <v>0.02281165324436842</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06158379580340242</v>
+        <v>0.06405705110309483</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -6331,19 +6331,19 @@
         <v>55878</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>43394</v>
+        <v>42382</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>73350</v>
+        <v>72107</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07324072090639158</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05687726966920424</v>
+        <v>0.05555093230592732</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09614187559825306</v>
+        <v>0.09451343810358549</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>84843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68613</v>
+        <v>69082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103184</v>
+        <v>103208</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2268637622623459</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1834659265616971</v>
+        <v>0.1847195585225774</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2759054062585307</v>
+        <v>0.2759702283563014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -6381,19 +6381,19 @@
         <v>65582</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51735</v>
+        <v>52223</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>81662</v>
+        <v>83301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1686125682201262</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1330126615449446</v>
+        <v>0.1342667222086048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.209953433118989</v>
+        <v>0.2141672603553439</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -6402,19 +6402,19 @@
         <v>150425</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>129574</v>
+        <v>127311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173201</v>
+        <v>173857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1971667159378073</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1698371264173282</v>
+        <v>0.1668698969791927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2270198676179996</v>
+        <v>0.227879635632618</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>223100</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203554</v>
+        <v>203035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>242640</v>
+        <v>243110</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5965533332379334</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5442888848221117</v>
+        <v>0.5429016376984731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6488003269727816</v>
+        <v>0.6500570134775602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>282</v>
@@ -6452,19 +6452,19 @@
         <v>295194</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>277997</v>
+        <v>276589</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311043</v>
+        <v>310999</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7589493867032676</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7147356377996048</v>
+        <v>0.7111142936511018</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7996962199277549</v>
+        <v>0.7995851612376558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -6473,19 +6473,19 @@
         <v>518294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>491709</v>
+        <v>491992</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>545525</v>
+        <v>547371</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6793444794449427</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6444988397315359</v>
+        <v>0.644869797087989</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7150365625236944</v>
+        <v>0.7174568252425154</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>9040</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3810</v>
+        <v>4021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17012</v>
+        <v>18001</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04251581637230924</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01792026639219575</v>
+        <v>0.01890989009898513</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08001390051535431</v>
+        <v>0.08466135760566973</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -6598,19 +6598,19 @@
         <v>3061</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7318</v>
+        <v>9894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01393853007494241</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004493216374820907</v>
+        <v>0.004481698780715299</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0333269593685744</v>
+        <v>0.04505631172758622</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -6619,19 +6619,19 @@
         <v>12100</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6013</v>
+        <v>6105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21717</v>
+        <v>20947</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02799665017316163</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01391160938226446</v>
+        <v>0.01412500493595382</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05024612200806416</v>
+        <v>0.04846480159912363</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>15706</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9592</v>
+        <v>9156</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27205</v>
+        <v>26679</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07386919842041005</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04511431855579145</v>
+        <v>0.04306522317995047</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1279510666458927</v>
+        <v>0.1254773471158558</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -6669,19 +6669,19 @@
         <v>7834</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3086</v>
+        <v>3768</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14564</v>
+        <v>14772</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03567708745689882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01405193941577194</v>
+        <v>0.01715771367985519</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06632438800389064</v>
+        <v>0.06727015924933111</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -6690,19 +6690,19 @@
         <v>23540</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14616</v>
+        <v>14853</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35455</v>
+        <v>34405</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05446506043455093</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03381634104992799</v>
+        <v>0.03436601246706174</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0820323525482502</v>
+        <v>0.07960270874384046</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>29496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19771</v>
+        <v>20042</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40790</v>
+        <v>40687</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1387279989527968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09298864151805351</v>
+        <v>0.09426314610890307</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1918470724418854</v>
+        <v>0.191362826148413</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -6740,19 +6740,19 @@
         <v>17766</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10732</v>
+        <v>11525</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26617</v>
+        <v>26765</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08090651999794085</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04887329989590274</v>
+        <v>0.05248246339006064</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1212102239361249</v>
+        <v>0.1218849954207046</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>47</v>
@@ -6761,19 +6761,19 @@
         <v>47262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36642</v>
+        <v>34699</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>61027</v>
+        <v>61905</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1093508336722913</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08477817610075153</v>
+        <v>0.08028285778022487</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1411985933721126</v>
+        <v>0.1432299805797944</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>34789</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24898</v>
+        <v>24590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48459</v>
+        <v>47440</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1636219090152024</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1171027053098588</v>
+        <v>0.115651477472188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2279141627356788</v>
+        <v>0.223123564060049</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -6811,19 +6811,19 @@
         <v>34067</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23968</v>
+        <v>23833</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46232</v>
+        <v>46351</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1551403245844168</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1091470918629584</v>
+        <v>0.1085340653081849</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2105360880441874</v>
+        <v>0.2110794636551766</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -6832,19 +6832,19 @@
         <v>68856</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53714</v>
+        <v>55058</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86557</v>
+        <v>86458</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.159312698801844</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1242772449038501</v>
+        <v>0.1273874423972794</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2002670222708006</v>
+        <v>0.2000365530752254</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>123587</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>109506</v>
+        <v>108189</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>137534</v>
+        <v>137635</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5812650772392816</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5150373823609022</v>
+        <v>0.5088423301526471</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6468589333589763</v>
+        <v>0.6473356008120288</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>150</v>
@@ -6882,19 +6882,19 @@
         <v>156862</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>143278</v>
+        <v>143289</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>169155</v>
+        <v>170853</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7143375378858011</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6524776461640445</v>
+        <v>0.6525277632672558</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7703203871173554</v>
+        <v>0.7780512798040793</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>264</v>
@@ -6903,19 +6903,19 @@
         <v>280450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>260165</v>
+        <v>259107</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>299889</v>
+        <v>299734</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6488747569181521</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6019415561767184</v>
+        <v>0.5994949441279774</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6938509385243492</v>
+        <v>0.6934935111676387</v>
       </c>
     </row>
     <row r="33">
@@ -7020,19 +7020,19 @@
         <v>3826</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9812</v>
+        <v>8817</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01371583856416864</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003513290017630163</v>
+        <v>0.003518108627389286</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03517681906088096</v>
+        <v>0.03160738504908472</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -7041,19 +7041,19 @@
         <v>3826</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9474</v>
+        <v>9413</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006931491701696691</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001770123536159675</v>
+        <v>0.001783431101760971</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01716409916148418</v>
+        <v>0.01705367812434889</v>
       </c>
     </row>
     <row r="35">
@@ -7070,19 +7070,19 @@
         <v>3705</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9232</v>
+        <v>8491</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01357058713040422</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003434640555502946</v>
+        <v>0.003389657031626186</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03381552283083573</v>
+        <v>0.03109920629171017</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -7091,19 +7091,19 @@
         <v>5815</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11724</v>
+        <v>11731</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02084642856763772</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007033840640968474</v>
+        <v>0.006980774227775446</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04202844276895142</v>
+        <v>0.04205413590821879</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -7112,19 +7112,19 @@
         <v>9520</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4753</v>
+        <v>4847</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17000</v>
+        <v>16844</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01724753581342496</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.008611220089240061</v>
+        <v>0.008780550583167427</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03079866170361768</v>
+        <v>0.03051630506794986</v>
       </c>
     </row>
     <row r="36">
@@ -7141,19 +7141,19 @@
         <v>25751</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17486</v>
+        <v>17449</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>36395</v>
+        <v>36772</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09431861827302331</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06404478099033944</v>
+        <v>0.06390927729020122</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1333060322026841</v>
+        <v>0.1346834474301864</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -7162,19 +7162,19 @@
         <v>20826</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12790</v>
+        <v>12929</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32695</v>
+        <v>32631</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07466006235481118</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04585127510969135</v>
+        <v>0.04635102256423954</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1172102337632328</v>
+        <v>0.1169820905705123</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>44</v>
@@ -7183,19 +7183,19 @@
         <v>46577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>35315</v>
+        <v>34218</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>62353</v>
+        <v>60774</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08438389087178351</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06398111866352681</v>
+        <v>0.06199303882255339</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1129646840134602</v>
+        <v>0.1101048716562252</v>
       </c>
     </row>
     <row r="37">
@@ -7212,19 +7212,19 @@
         <v>41843</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31279</v>
+        <v>30561</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>54772</v>
+        <v>57929</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1532583995241283</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1145659024300551</v>
+        <v>0.1119346584211249</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2006128849281986</v>
+        <v>0.2121787688393161</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>24</v>
@@ -7233,19 +7233,19 @@
         <v>24776</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16115</v>
+        <v>16143</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>35203</v>
+        <v>35749</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08881993353508791</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05777196243247837</v>
+        <v>0.05787261887340038</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1262026246748071</v>
+        <v>0.1281585234227852</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>63</v>
@@ -7254,19 +7254,19 @@
         <v>66619</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>52438</v>
+        <v>51788</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>83560</v>
+        <v>82496</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1206935154899911</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09500249382001873</v>
+        <v>0.09382450226314699</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1513862474689351</v>
+        <v>0.1494583776438457</v>
       </c>
     </row>
     <row r="38">
@@ -7283,19 +7283,19 @@
         <v>201723</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>185774</v>
+        <v>184930</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>215046</v>
+        <v>216384</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7388523950724442</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6804366509618373</v>
+        <v>0.6773429712752476</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7876522573175613</v>
+        <v>0.7925523687497988</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>216</v>
@@ -7304,19 +7304,19 @@
         <v>223701</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>208980</v>
+        <v>209047</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>236488</v>
+        <v>236511</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8019577369782945</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7491812324558924</v>
+        <v>0.7494216433819954</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8477964262383915</v>
+        <v>0.8478807225227484</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>407</v>
@@ -7325,19 +7325,19 @@
         <v>425424</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>403622</v>
+        <v>404766</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>442827</v>
+        <v>444207</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7707435661231037</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7312441467278021</v>
+        <v>0.7333172019350727</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8022725044820032</v>
+        <v>0.8047729492655676</v>
       </c>
     </row>
     <row r="39">
@@ -7429,19 +7429,19 @@
         <v>3685</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>912</v>
+        <v>925</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8486</v>
+        <v>9991</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005586025961756441</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001382166306533139</v>
+        <v>0.001402065436372447</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01286259253820036</v>
+        <v>0.01514365959603106</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -7450,19 +7450,19 @@
         <v>8652</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3745</v>
+        <v>3800</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17441</v>
+        <v>18076</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01252374423600893</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.005420689745689549</v>
+        <v>0.005500251161776099</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02524579988874981</v>
+        <v>0.0261654541854414</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -7471,19 +7471,19 @@
         <v>12337</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6623</v>
+        <v>6501</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>22845</v>
+        <v>21699</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009134770815621796</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004903992380835611</v>
+        <v>0.004813218414113789</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01691538050843453</v>
+        <v>0.01606668556695026</v>
       </c>
     </row>
     <row r="41">
@@ -7500,19 +7500,19 @@
         <v>11294</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6379</v>
+        <v>6332</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>19952</v>
+        <v>18775</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01711882448797456</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009668638851382924</v>
+        <v>0.009598038581511002</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03024335324745595</v>
+        <v>0.02845952747818528</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -7521,19 +7521,19 @@
         <v>24691</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15190</v>
+        <v>15240</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>38737</v>
+        <v>38997</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03574130599715317</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02198783332536331</v>
+        <v>0.02206058930853153</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05607279764402969</v>
+        <v>0.05645000597791706</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>32</v>
@@ -7542,19 +7542,19 @@
         <v>35985</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>24058</v>
+        <v>25859</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>50228</v>
+        <v>51033</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02664449745557872</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01781310995866313</v>
+        <v>0.01914710282730108</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03719038587263775</v>
+        <v>0.03778701393355267</v>
       </c>
     </row>
     <row r="42">
@@ -7571,19 +7571,19 @@
         <v>82771</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>65577</v>
+        <v>66329</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>100299</v>
+        <v>101679</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1254629727530399</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09940055583329176</v>
+        <v>0.1005399407775396</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.152031474824632</v>
+        <v>0.1541232164618775</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>49</v>
@@ -7592,19 +7592,19 @@
         <v>51419</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>37892</v>
+        <v>39554</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>65773</v>
+        <v>69047</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07443069326681021</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05485049580378378</v>
+        <v>0.05725634090372977</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09520896693750408</v>
+        <v>0.09994773081170047</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>127</v>
@@ -7613,19 +7613,19 @@
         <v>134190</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>112646</v>
+        <v>114416</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>157790</v>
+        <v>159220</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09935921182635551</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08340730271316805</v>
+        <v>0.08471824510116989</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1168333092163151</v>
+        <v>0.1178926809610833</v>
       </c>
     </row>
     <row r="43">
@@ -7642,19 +7642,19 @@
         <v>178381</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>154972</v>
+        <v>156784</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>205850</v>
+        <v>203372</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2703862090251546</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2349041983529588</v>
+        <v>0.2376509293758626</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3120234264932584</v>
+        <v>0.3082679252534818</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>119</v>
@@ -7663,19 +7663,19 @@
         <v>131777</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>111600</v>
+        <v>111813</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>155544</v>
+        <v>154452</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.190751627703608</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1615453851471511</v>
+        <v>0.1618538665245944</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2251562062555786</v>
+        <v>0.2235757359854076</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>284</v>
@@ -7684,19 +7684,19 @@
         <v>310157</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>281947</v>
+        <v>278700</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>348682</v>
+        <v>342548</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2296519503707831</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2087642365028487</v>
+        <v>0.2063597069544696</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2581772617586894</v>
+        <v>0.2536356482679257</v>
       </c>
     </row>
     <row r="44">
@@ -7713,19 +7713,19 @@
         <v>383594</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>357532</v>
+        <v>357103</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>411586</v>
+        <v>408112</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5814459677720745</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5419403689385568</v>
+        <v>0.5412900970276364</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6238750825543609</v>
+        <v>0.61860987003491</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>439</v>
@@ -7734,19 +7734,19 @@
         <v>474290</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>444370</v>
+        <v>447956</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>499865</v>
+        <v>499147</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6865526287964198</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6432424295494648</v>
+        <v>0.6484333065261356</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7235735107309468</v>
+        <v>0.7225351276922242</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>795</v>
@@ -7755,19 +7755,19 @@
         <v>857884</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>818155</v>
+        <v>819726</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>894561</v>
+        <v>891706</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6352095695316609</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6057926727401511</v>
+        <v>0.6069556101458334</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.662366809831347</v>
+        <v>0.6602522174405758</v>
       </c>
     </row>
     <row r="45">
@@ -7859,19 +7859,19 @@
         <v>13000</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7031</v>
+        <v>7640</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22344</v>
+        <v>22117</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01668540822493754</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009024485789590295</v>
+        <v>0.009806383266125287</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02867921896505644</v>
+        <v>0.02838822235055763</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -7880,19 +7880,19 @@
         <v>4141</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12187</v>
+        <v>14208</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.005026612795319739</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001294019222788484</v>
+        <v>0.001299518025578677</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0147923446406404</v>
+        <v>0.01724535314338474</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>16</v>
@@ -7901,19 +7901,19 @@
         <v>17141</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9762</v>
+        <v>10327</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>27018</v>
+        <v>27076</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0106932525172507</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006090024801526861</v>
+        <v>0.006442501199012097</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01685490578454898</v>
+        <v>0.01689129927963138</v>
       </c>
     </row>
     <row r="47">
@@ -7930,19 +7930,19 @@
         <v>16608</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9407</v>
+        <v>9331</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>26851</v>
+        <v>26319</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02131751499904449</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01207448756022555</v>
+        <v>0.0119761970715455</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03446388725071971</v>
+        <v>0.03378188227376638</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>18</v>
@@ -7951,19 +7951,19 @@
         <v>20661</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>12398</v>
+        <v>12370</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31237</v>
+        <v>31740</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02507868972977276</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01504833982489944</v>
+        <v>0.01501523237478023</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03791548259039215</v>
+        <v>0.03852638787989775</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>33</v>
@@ -7972,19 +7972,19 @@
         <v>37270</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>26358</v>
+        <v>26635</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>53179</v>
+        <v>54473</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02325060875357482</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01644353658939723</v>
+        <v>0.01661625080045712</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03317575456266099</v>
+        <v>0.03398282179577239</v>
       </c>
     </row>
     <row r="48">
@@ -8001,19 +8001,19 @@
         <v>103033</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>86961</v>
+        <v>85740</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>124079</v>
+        <v>123588</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1322470820286489</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1116175160302569</v>
+        <v>0.1100508449265229</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1592597613476514</v>
+        <v>0.158629433428448</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>79</v>
@@ -8022,19 +8022,19 @@
         <v>86685</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>69316</v>
+        <v>68953</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>106542</v>
+        <v>106027</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1052188849710326</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.08413645121493989</v>
+        <v>0.08369612736147677</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1293216255620277</v>
+        <v>0.1286963195729582</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>175</v>
@@ -8043,19 +8043,19 @@
         <v>189718</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>162690</v>
+        <v>164873</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>215848</v>
+        <v>220418</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1183556670668727</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1014942725407116</v>
+        <v>0.1028557811061287</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1346569533626532</v>
+        <v>0.1375073500078974</v>
       </c>
     </row>
     <row r="49">
@@ -8072,19 +8072,19 @@
         <v>269032</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>243627</v>
+        <v>240883</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>297077</v>
+        <v>296028</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3453116244138924</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3127035145325521</v>
+        <v>0.3091825309331931</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3813082613522601</v>
+        <v>0.379962440844612</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>242</v>
@@ -8093,19 +8093,19 @@
         <v>259380</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>232153</v>
+        <v>235440</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>285571</v>
+        <v>288361</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3148381647862033</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2817888042189308</v>
+        <v>0.2857793697505723</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3466282950781077</v>
+        <v>0.3500153159767297</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>494</v>
@@ -8114,19 +8114,19 @@
         <v>528412</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>485264</v>
+        <v>490715</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>567995</v>
+        <v>573080</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3296494819444274</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3027317358658669</v>
+        <v>0.3061324804672218</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3543431800846754</v>
+        <v>0.3575155557516552</v>
       </c>
     </row>
     <row r="50">
@@ -8143,19 +8143,19 @@
         <v>377425</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>344367</v>
+        <v>347019</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>402013</v>
+        <v>405943</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4844383703334767</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4420066852951089</v>
+        <v>0.4454110830763469</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5159975517156378</v>
+        <v>0.5210422970594659</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>415</v>
@@ -8164,19 +8164,19 @@
         <v>452985</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>423045</v>
+        <v>424004</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>482029</v>
+        <v>483607</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.5498376477176716</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.5134957322915075</v>
+        <v>0.5146593670323517</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5850915988526484</v>
+        <v>0.587006536060336</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>756</v>
@@ -8185,19 +8185,19 @@
         <v>830410</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>789314</v>
+        <v>785245</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>871454</v>
+        <v>872966</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5180509897178744</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4924131681396981</v>
+        <v>0.4898747534018813</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5436561891393058</v>
+        <v>0.5445991102898383</v>
       </c>
     </row>
     <row r="51">
@@ -8289,19 +8289,19 @@
         <v>74743</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>59687</v>
+        <v>59768</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>94800</v>
+        <v>94181</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02184379388865649</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01744367608131352</v>
+        <v>0.01746722024397955</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02770546825280677</v>
+        <v>0.02752445949910438</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>61</v>
@@ -8310,19 +8310,19 @@
         <v>67432</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>51554</v>
+        <v>53305</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>87900</v>
+        <v>88132</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01898962997665723</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01451818327954864</v>
+        <v>0.0150113318220321</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02475365024503736</v>
+        <v>0.02481902789020812</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>134</v>
@@ -8331,19 +8331,19 @@
         <v>142175</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>120575</v>
+        <v>119345</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>166946</v>
+        <v>166548</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02039025756840052</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0172925114285393</v>
+        <v>0.01711603306087681</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02394279634965708</v>
+        <v>0.02388581907811686</v>
       </c>
     </row>
     <row r="53">
@@ -8360,19 +8360,19 @@
         <v>108755</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>89080</v>
+        <v>88631</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>130042</v>
+        <v>131024</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.03178387573196234</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02603371990604366</v>
+        <v>0.0259024825660238</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03800483702118101</v>
+        <v>0.03829191367591906</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>86</v>
@@ -8381,19 +8381,19 @@
         <v>95464</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>76713</v>
+        <v>76083</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>117636</v>
+        <v>119009</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.02688379346315078</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02160337385014621</v>
+        <v>0.02142609444253844</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03312781901691811</v>
+        <v>0.03351459969712207</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>190</v>
@@ -8402,19 +8402,19 @@
         <v>204219</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>178591</v>
+        <v>178051</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>239090</v>
+        <v>235027</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.02928841724759981</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02561295264350595</v>
+        <v>0.02553546336353774</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03428954644279029</v>
+        <v>0.03370679977363276</v>
       </c>
     </row>
     <row r="54">
@@ -8431,19 +8431,19 @@
         <v>383938</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>348232</v>
+        <v>348622</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>424147</v>
+        <v>425715</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.112206172501739</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1017709965300006</v>
+        <v>0.1018850023735507</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1239573992776465</v>
+        <v>0.1244155753563673</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>255</v>
@@ -8452,19 +8452,19 @@
         <v>272217</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>240594</v>
+        <v>242197</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>303414</v>
+        <v>306606</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.07665996755818114</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.06775427243804871</v>
+        <v>0.06820574060337559</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.08544531813229046</v>
+        <v>0.0863442872729825</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>623</v>
@@ -8473,19 +8473,19 @@
         <v>656155</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>612392</v>
+        <v>604482</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>711167</v>
+        <v>706429</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.09410360322899812</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.08782717646634663</v>
+        <v>0.08669278020530029</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1019932169209782</v>
+        <v>0.1013137236087769</v>
       </c>
     </row>
     <row r="55">
@@ -8502,19 +8502,19 @@
         <v>811341</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>759357</v>
+        <v>755053</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>865802</v>
+        <v>865380</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2371151076932112</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2219226489058752</v>
+        <v>0.2206650135277195</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.253031507599292</v>
+        <v>0.2529080647095495</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>646</v>
@@ -8523,19 +8523,19 @@
         <v>704059</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>658029</v>
+        <v>656819</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>755450</v>
+        <v>754986</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1982721362077393</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1853094589436563</v>
+        <v>0.1849688940686354</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.212744524978968</v>
+        <v>0.2126140002848042</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1405</v>
@@ -8544,19 +8544,19 @@
         <v>1515400</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1446251</v>
+        <v>1442335</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1586830</v>
+        <v>1589631</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.217333598438106</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2074164843859816</v>
+        <v>0.2068549050411781</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.227577965571952</v>
+        <v>0.2279796695310472</v>
       </c>
     </row>
     <row r="56">
@@ -8573,19 +8573,19 @@
         <v>2042940</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1984872</v>
+        <v>1981039</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2107256</v>
+        <v>2103403</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5970510501844309</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5800808291932795</v>
+        <v>0.5789605315911199</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6158476453109649</v>
+        <v>0.6147215280418531</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2244</v>
@@ -8594,19 +8594,19 @@
         <v>2411801</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2355800</v>
+        <v>2356129</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2473440</v>
+        <v>2466725</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.6791944727942716</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6634238869659126</v>
+        <v>0.6635166946153882</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.696553069635</v>
+        <v>0.6946619777556908</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>4144</v>
@@ -8615,19 +8615,19 @@
         <v>4454740</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>4372989</v>
+        <v>4371356</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4532924</v>
+        <v>4537576</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.6388841235168955</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6271595519341167</v>
+        <v>0.6269254669229264</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.6500969820032708</v>
+        <v>0.6507641196440236</v>
       </c>
     </row>
     <row r="57">
@@ -8963,19 +8963,19 @@
         <v>14479</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8172</v>
+        <v>7390</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25263</v>
+        <v>24151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04963322514172117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02801340397737482</v>
+        <v>0.02533194782161726</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08659636690527826</v>
+        <v>0.08278470598162627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -8984,19 +8984,19 @@
         <v>8522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3706</v>
+        <v>4580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14599</v>
+        <v>16368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02951910133525792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01283626538255109</v>
+        <v>0.01586499588700246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05056811056217426</v>
+        <v>0.0566949167765019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -9005,19 +9005,19 @@
         <v>23002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14932</v>
+        <v>15369</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34591</v>
+        <v>36021</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03962858221485847</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02572571616025709</v>
+        <v>0.02647909645582996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05959542584006087</v>
+        <v>0.06205821907925579</v>
       </c>
     </row>
     <row r="5">
@@ -9034,19 +9034,19 @@
         <v>12783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6937</v>
+        <v>6648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21602</v>
+        <v>20832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04381946801163419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02377948435991326</v>
+        <v>0.02278784690279674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0740485208087983</v>
+        <v>0.07140952232852583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -9055,19 +9055,19 @@
         <v>13183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7384</v>
+        <v>7562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21960</v>
+        <v>21970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04566239647530291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02557748077896297</v>
+        <v>0.02619389104759231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.076064222916868</v>
+        <v>0.07609871970824905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -9076,19 +9076,19 @@
         <v>25966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17026</v>
+        <v>17256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38115</v>
+        <v>36945</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04473612942806798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02933326821027581</v>
+        <v>0.02972997271947615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06566597541830579</v>
+        <v>0.063651173509506</v>
       </c>
     </row>
     <row r="6">
@@ -9105,19 +9105,19 @@
         <v>42227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31779</v>
+        <v>30529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58077</v>
+        <v>55486</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1447470865968824</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1089343717187667</v>
+        <v>0.1046493480857086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1990783700934926</v>
+        <v>0.1901993459471783</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -9126,19 +9126,19 @@
         <v>33746</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23616</v>
+        <v>23659</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47178</v>
+        <v>45591</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1168897270064981</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0817990089200441</v>
+        <v>0.08194814484348706</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1634123998460463</v>
+        <v>0.1579152158750062</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -9147,19 +9147,19 @@
         <v>75973</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60843</v>
+        <v>61453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94140</v>
+        <v>95713</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1308910052548031</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1048240371652473</v>
+        <v>0.105873990912637</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1621890502610782</v>
+        <v>0.1648996855544639</v>
       </c>
     </row>
     <row r="7">
@@ -9176,19 +9176,19 @@
         <v>64600</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50786</v>
+        <v>51218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78937</v>
+        <v>81132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2214381980918536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1740877849298738</v>
+        <v>0.175568760475535</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2705851599331202</v>
+        <v>0.2781086968152864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -9197,19 +9197,19 @@
         <v>52216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40419</v>
+        <v>39335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65719</v>
+        <v>65736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1808637489786622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1400012282436291</v>
+        <v>0.1362467454154778</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2276353225706222</v>
+        <v>0.2276957539649379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -9218,19 +9218,19 @@
         <v>116816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98217</v>
+        <v>98035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136107</v>
+        <v>138213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2012567137161234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1692138993118868</v>
+        <v>0.1689008291293614</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2344928331625191</v>
+        <v>0.2381210417678607</v>
       </c>
     </row>
     <row r="8">
@@ -9247,19 +9247,19 @@
         <v>157639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>140380</v>
+        <v>139942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175098</v>
+        <v>175357</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5403620221579086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4812011310628094</v>
+        <v>0.4796989053131876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6002091137258628</v>
+        <v>0.601099147977128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -9268,19 +9268,19 @@
         <v>181036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>165959</v>
+        <v>164548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>197568</v>
+        <v>197647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6270650262042788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5748427216589482</v>
+        <v>0.569954805264322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6843279416561844</v>
+        <v>0.6846027059064427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>312</v>
@@ -9289,19 +9289,19 @@
         <v>338674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>314324</v>
+        <v>314336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360250</v>
+        <v>362154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5834875693861471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5415360799554747</v>
+        <v>0.5415561703905589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6206593206401745</v>
+        <v>0.6239394872915603</v>
       </c>
     </row>
     <row r="9">
@@ -9393,19 +9393,19 @@
         <v>6335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2158</v>
+        <v>2170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12869</v>
+        <v>12796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01260532283366743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00429311611747391</v>
+        <v>0.00431767040007488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02560616138305334</v>
+        <v>0.02546085454435857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -9414,19 +9414,19 @@
         <v>2974</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7966</v>
+        <v>8897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005685116739842044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001870477999938087</v>
+        <v>0.001871780213732318</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01522859509156026</v>
+        <v>0.01700856153708021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -9435,19 +9435,19 @@
         <v>9309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4016</v>
+        <v>4293</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16681</v>
+        <v>16633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009076033071277956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003915342506757325</v>
+        <v>0.004185779218185739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0162636851527135</v>
+        <v>0.01621687360234293</v>
       </c>
     </row>
     <row r="11">
@@ -9464,19 +9464,19 @@
         <v>15727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8912</v>
+        <v>9209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25075</v>
+        <v>25663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03129287642405517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01773319589927648</v>
+        <v>0.01832371121003298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04989316176383676</v>
+        <v>0.05106279452938237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -9485,19 +9485,19 @@
         <v>8949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4024</v>
+        <v>3994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15960</v>
+        <v>15094</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01710895440052264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007692272837246486</v>
+        <v>0.007635928603740154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03051104345830723</v>
+        <v>0.02885593409547696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -9506,19 +9506,19 @@
         <v>24676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15685</v>
+        <v>15764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35860</v>
+        <v>36517</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02405910764470484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01529224470658523</v>
+        <v>0.01536990396680042</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03496289709493898</v>
+        <v>0.03560300941172685</v>
       </c>
     </row>
     <row r="12">
@@ -9535,19 +9535,19 @@
         <v>50330</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37260</v>
+        <v>37210</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65191</v>
+        <v>63635</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1001448035756246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07413734889738252</v>
+        <v>0.07403828111331154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.12971475409687</v>
+        <v>0.1266169279069894</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -9556,19 +9556,19 @@
         <v>32549</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21930</v>
+        <v>22762</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45384</v>
+        <v>46612</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06222445846397705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04192483792144378</v>
+        <v>0.04351472060719478</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08676298527621637</v>
+        <v>0.08911013259378238</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -9577,19 +9577,19 @@
         <v>82879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66924</v>
+        <v>65042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102100</v>
+        <v>100985</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08080551165652611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06524978142153764</v>
+        <v>0.06341440297292315</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0995453583297889</v>
+        <v>0.09845834174288501</v>
       </c>
     </row>
     <row r="13">
@@ -9606,19 +9606,19 @@
         <v>175841</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154695</v>
+        <v>151851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198080</v>
+        <v>197365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3498809658912918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3078046786940636</v>
+        <v>0.3021466404030841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3941302644465268</v>
+        <v>0.3927081769867291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -9627,19 +9627,19 @@
         <v>180860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156647</v>
+        <v>158732</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201362</v>
+        <v>203300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3457571660126492</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2994681042743805</v>
+        <v>0.3034539385366923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.384952481969112</v>
+        <v>0.3886571195355302</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -9648,19 +9648,19 @@
         <v>356701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>325236</v>
+        <v>323992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>388428</v>
+        <v>390839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3477778370976534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3170998619602859</v>
+        <v>0.3158863986823672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3787111310521263</v>
+        <v>0.3810609366707903</v>
       </c>
     </row>
     <row r="14">
@@ -9677,19 +9677,19 @@
         <v>254341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>229921</v>
+        <v>230973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275182</v>
+        <v>277444</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.506076031275361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4574849596805716</v>
+        <v>0.4595799049622297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5475449020118748</v>
+        <v>0.5520446554327301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>272</v>
@@ -9698,19 +9698,19 @@
         <v>297752</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275463</v>
+        <v>274590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321503</v>
+        <v>321931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.569224304383009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.526613688433646</v>
+        <v>0.5249434566063385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6146296578883648</v>
+        <v>0.6154482959312073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -9719,19 +9719,19 @@
         <v>552093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>521221</v>
+        <v>517827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>585711</v>
+        <v>584181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5382815105298377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5081813136853004</v>
+        <v>0.5048723960324679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5710580519111889</v>
+        <v>0.5695662956928804</v>
       </c>
     </row>
     <row r="15">
@@ -9823,19 +9823,19 @@
         <v>5535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2676</v>
+        <v>1909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12530</v>
+        <v>11037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01737519625176799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008400481258095612</v>
+        <v>0.005991783232185566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.039332501570246</v>
+        <v>0.03464657527688955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -9844,19 +9844,19 @@
         <v>3761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9340</v>
+        <v>9205</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01118269941841042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002926987157474532</v>
+        <v>0.002897155445142946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02777328882686388</v>
+        <v>0.02737055396599702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -9865,19 +9865,19 @@
         <v>9296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4624</v>
+        <v>4583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16422</v>
+        <v>16635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01419505406996292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007060372315204982</v>
+        <v>0.006997560291791102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02507705280596895</v>
+        <v>0.02540115488352354</v>
       </c>
     </row>
     <row r="17">
@@ -9894,19 +9894,19 @@
         <v>10288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5383</v>
+        <v>5496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18200</v>
+        <v>18139</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03229362843142188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01689680715452256</v>
+        <v>0.01725175870547077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05713011237967455</v>
+        <v>0.05694011706070869</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -9915,19 +9915,19 @@
         <v>8475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3725</v>
+        <v>3869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17005</v>
+        <v>18076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02519903085299383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01107618714671157</v>
+        <v>0.01150511081414279</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05056363532829082</v>
+        <v>0.05374918967767314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -9936,19 +9936,19 @@
         <v>18762</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11170</v>
+        <v>11900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29530</v>
+        <v>28158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02865021453404922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01705689328308694</v>
+        <v>0.01817067794738197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0450925807608866</v>
+        <v>0.04299832105776499</v>
       </c>
     </row>
     <row r="18">
@@ -9965,19 +9965,19 @@
         <v>36137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26097</v>
+        <v>25663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49584</v>
+        <v>48126</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1134368233024666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08191894484908432</v>
+        <v>0.08055844548739022</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1556469302305141</v>
+        <v>0.1510708944754653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -9986,19 +9986,19 @@
         <v>31887</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21908</v>
+        <v>22188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43292</v>
+        <v>43417</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09481542619727976</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06514340866972244</v>
+        <v>0.06597615907031372</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1287272401786859</v>
+        <v>0.1290991758265971</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -10007,19 +10007,19 @@
         <v>68024</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54281</v>
+        <v>54299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>85477</v>
+        <v>84262</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1038738486232791</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08288804908399815</v>
+        <v>0.08291486554920667</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.13052369585947</v>
+        <v>0.1286696131409824</v>
       </c>
     </row>
     <row r="19">
@@ -10036,19 +10036,19 @@
         <v>113724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96830</v>
+        <v>97255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130907</v>
+        <v>130075</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3569893335052504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3039563269901598</v>
+        <v>0.3052894424055126</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4109279950698065</v>
+        <v>0.4083161395443587</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -10057,19 +10057,19 @@
         <v>103765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88508</v>
+        <v>86721</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120359</v>
+        <v>122458</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3085414367901403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2631754301368751</v>
+        <v>0.257859874153249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3578819331437447</v>
+        <v>0.364124762910249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>225</v>
@@ -10078,19 +10078,19 @@
         <v>217490</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>194517</v>
+        <v>193602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>240825</v>
+        <v>242318</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3321090301139737</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2970295267912177</v>
+        <v>0.2956317589959893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3677424198228834</v>
+        <v>0.3700224794480722</v>
       </c>
     </row>
     <row r="20">
@@ -10107,19 +10107,19 @@
         <v>152881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135062</v>
+        <v>135316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169826</v>
+        <v>169580</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4799050185090931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4239713556123939</v>
+        <v>0.4247685076431959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5330984173159016</v>
+        <v>0.5323236794154916</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>180</v>
@@ -10128,19 +10128,19 @@
         <v>188421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>171073</v>
+        <v>170081</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205704</v>
+        <v>208472</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5602614067411756</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5086784748871065</v>
+        <v>0.5057288636593802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6116516007704428</v>
+        <v>0.6198824175769009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -10149,19 +10149,19 @@
         <v>341302</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>317642</v>
+        <v>313619</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>367002</v>
+        <v>364490</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5211718526587351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4850425787282318</v>
+        <v>0.4789001004748161</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5604166894404234</v>
+        <v>0.5565802066836426</v>
       </c>
     </row>
     <row r="21">
@@ -10253,19 +10253,19 @@
         <v>9887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4912</v>
+        <v>4808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18545</v>
+        <v>17969</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02672340370934007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01327700406282838</v>
+        <v>0.01299662470798074</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0501278076510161</v>
+        <v>0.04857010913499105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -10274,19 +10274,19 @@
         <v>13519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7507</v>
+        <v>7402</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24394</v>
+        <v>22499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03490715093720385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01938355702846428</v>
+        <v>0.01911299885219612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06298880620120741</v>
+        <v>0.05809545440513102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -10295,19 +10295,19 @@
         <v>23406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15069</v>
+        <v>14986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36950</v>
+        <v>35440</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03090886260010258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01989905876331329</v>
+        <v>0.01978998701506443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04879529607525476</v>
+        <v>0.0468005471552839</v>
       </c>
     </row>
     <row r="23">
@@ -10324,19 +10324,19 @@
         <v>17607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10575</v>
+        <v>10260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28403</v>
+        <v>27356</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04759099523700721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02858399029157448</v>
+        <v>0.02773152214473906</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07677233914762266</v>
+        <v>0.07394329211394861</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -10345,19 +10345,19 @@
         <v>9382</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4653</v>
+        <v>4695</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16557</v>
+        <v>16188</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02422569859860795</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0120144311225509</v>
+        <v>0.01212167529731137</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04275095025473529</v>
+        <v>0.04179914597929733</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -10366,19 +10366,19 @@
         <v>26989</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17441</v>
+        <v>17735</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38641</v>
+        <v>38880</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0356411529670109</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02303150821961894</v>
+        <v>0.02342092202572464</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05102886552578032</v>
+        <v>0.05134436992195782</v>
       </c>
     </row>
     <row r="24">
@@ -10395,19 +10395,19 @@
         <v>46561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35048</v>
+        <v>35055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59361</v>
+        <v>61699</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1258536612452488</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0947340956112727</v>
+        <v>0.09475223645254024</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1604501595816875</v>
+        <v>0.1667709955411276</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -10416,19 +10416,19 @@
         <v>31478</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21381</v>
+        <v>21144</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43275</v>
+        <v>44086</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08127893109950764</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05520734180816362</v>
+        <v>0.05459572247012162</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1117411244520988</v>
+        <v>0.1138339070598227</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -10437,19 +10437,19 @@
         <v>78039</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60610</v>
+        <v>61332</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94751</v>
+        <v>96427</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1030565616529472</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08003960061912624</v>
+        <v>0.0809937899921133</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.125125181169416</v>
+        <v>0.1273389889853377</v>
       </c>
     </row>
     <row r="25">
@@ -10466,19 +10466,19 @@
         <v>40556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30462</v>
+        <v>30450</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53905</v>
+        <v>53478</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.109622659927783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0823367033584905</v>
+        <v>0.08230540244263375</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1457044358364837</v>
+        <v>0.1445494707107139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -10487,19 +10487,19 @@
         <v>41090</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30841</v>
+        <v>30776</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56619</v>
+        <v>55858</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.106097396119103</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07963492650158591</v>
+        <v>0.07946737613121714</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1461945335219636</v>
+        <v>0.1442306003983123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -10508,19 +10508,19 @@
         <v>81646</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66456</v>
+        <v>66475</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102431</v>
+        <v>99283</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.107819714853907</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08776055535580127</v>
+        <v>0.08778491133316671</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1352680130936968</v>
+        <v>0.1311106435059833</v>
       </c>
     </row>
     <row r="26">
@@ -10537,19 +10537,19 @@
         <v>255353</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>234216</v>
+        <v>235125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>271329</v>
+        <v>272861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.690209279880621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6330764908860489</v>
+        <v>0.6355356782606647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7333921070458722</v>
+        <v>0.7375341472236209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>268</v>
@@ -10558,19 +10558,19 @@
         <v>291814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>272532</v>
+        <v>273036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>308221</v>
+        <v>308737</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7534908232455776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7037036695837637</v>
+        <v>0.7050046641111127</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7958548268348626</v>
+        <v>0.7971867957779053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>513</v>
@@ -10579,19 +10579,19 @@
         <v>547167</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>519736</v>
+        <v>522706</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>571939</v>
+        <v>572509</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7225737079260323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6863491086812459</v>
+        <v>0.6902719230667715</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.755287867963754</v>
+        <v>0.7560398182722309</v>
       </c>
     </row>
     <row r="27">
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4793</v>
+        <v>5311</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004530527310403009</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02269272517097805</v>
+        <v>0.02514580762989843</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5659</v>
+        <v>4609</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005173807214208288</v>
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02589017398327098</v>
+        <v>0.02108394951969292</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6469</v>
+        <v>7160</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004857679492081177</v>
@@ -10737,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01505069559686102</v>
+        <v>0.01665752817966474</v>
       </c>
     </row>
     <row r="29">
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7912</v>
+        <v>9053</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007565007431364998</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03745665647784598</v>
+        <v>0.04286192115146103</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9061</v>
+        <v>9452</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003717679587074424</v>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02108097472735822</v>
+        <v>0.02199071515700677</v>
       </c>
     </row>
     <row r="30">
@@ -10817,19 +10817,19 @@
         <v>15656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9326</v>
+        <v>9421</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23978</v>
+        <v>24594</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0741218938066187</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04415079545524061</v>
+        <v>0.04460152789589417</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1135187847555236</v>
+        <v>0.1164370693856402</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -10838,19 +10838,19 @@
         <v>11907</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5934</v>
+        <v>6736</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19281</v>
+        <v>20908</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0544735504646911</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0271465536200871</v>
+        <v>0.0308156814375674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08820629072338396</v>
+        <v>0.09564934235249575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -10859,19 +10859,19 @@
         <v>27563</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18595</v>
+        <v>18970</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39548</v>
+        <v>38510</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06412935657259518</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04326354575974467</v>
+        <v>0.04413673113570847</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09201288344382855</v>
+        <v>0.0895976621224322</v>
       </c>
     </row>
     <row r="31">
@@ -10888,19 +10888,19 @@
         <v>72407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>59197</v>
+        <v>58562</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>86879</v>
+        <v>86257</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3428029814567083</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.280259371268313</v>
+        <v>0.2772567287091895</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4113175447762083</v>
+        <v>0.408372326278866</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>69</v>
@@ -10909,19 +10909,19 @@
         <v>66506</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>53499</v>
+        <v>53941</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>81834</v>
+        <v>82001</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.304256404425228</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2447515072124384</v>
+        <v>0.246771604938449</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3743771075470973</v>
+        <v>0.375140701132488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -10930,19 +10930,19 @@
         <v>138914</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>118071</v>
+        <v>118814</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>159955</v>
+        <v>158000</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3231993894628076</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.274706991942531</v>
+        <v>0.2764343982126437</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3721548140046926</v>
+        <v>0.3676067417393106</v>
       </c>
     </row>
     <row r="32">
@@ -10959,19 +10959,19 @@
         <v>120603</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>106406</v>
+        <v>106100</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>135462</v>
+        <v>134976</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5709795899949051</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5037640482100185</v>
+        <v>0.5023181501129624</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6413262407673045</v>
+        <v>0.6390259073684008</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>141</v>
@@ -10980,19 +10980,19 @@
         <v>139042</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>122960</v>
+        <v>124475</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>152847</v>
+        <v>152136</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6360962378958727</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5625230604084041</v>
+        <v>0.5694549189220525</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6992496457063985</v>
+        <v>0.6959957648093246</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>263</v>
@@ -11001,19 +11001,19 @@
         <v>259645</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>237642</v>
+        <v>240115</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>279055</v>
+        <v>279891</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6040958948854416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5529017822929067</v>
+        <v>0.5586566782167961</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6492558582277967</v>
+        <v>0.6511997027071847</v>
       </c>
     </row>
     <row r="33">
@@ -11105,19 +11105,19 @@
         <v>16999</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10118</v>
+        <v>10393</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>26744</v>
+        <v>27616</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06460615555027961</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03845165064868921</v>
+        <v>0.03949856988502166</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1016400209162868</v>
+        <v>0.1049535462735198</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -11126,19 +11126,19 @@
         <v>15229</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9145</v>
+        <v>9244</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23706</v>
+        <v>24728</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05596595282836488</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0336067690003596</v>
+        <v>0.03397112029606793</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0871215725114565</v>
+        <v>0.09087631345948693</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>32</v>
@@ -11147,19 +11147,19 @@
         <v>32228</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22713</v>
+        <v>22058</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46642</v>
+        <v>44457</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06021357491054083</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04243571141514642</v>
+        <v>0.04121328067705728</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08714462060378601</v>
+        <v>0.0830614197821863</v>
       </c>
     </row>
     <row r="35">
@@ -11176,19 +11176,19 @@
         <v>23382</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15226</v>
+        <v>15686</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>34747</v>
+        <v>32892</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08886436182350671</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05786732390091216</v>
+        <v>0.05961559287524835</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1320564610197503</v>
+        <v>0.1250079956454656</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -11197,19 +11197,19 @@
         <v>22192</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14670</v>
+        <v>14034</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>33003</v>
+        <v>33112</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08155707467144223</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05391251936856683</v>
+        <v>0.05157477065827443</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1212903308204632</v>
+        <v>0.1216878785756463</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -11218,19 +11218,19 @@
         <v>45574</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32661</v>
+        <v>32862</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>58494</v>
+        <v>58814</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08514942027569343</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0610228899544818</v>
+        <v>0.06139860498926056</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1092891745639369</v>
+        <v>0.1098856094638458</v>
       </c>
     </row>
     <row r="36">
@@ -11247,19 +11247,19 @@
         <v>61278</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48501</v>
+        <v>47820</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>75835</v>
+        <v>76401</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2328882222856058</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1843286806934599</v>
+        <v>0.1817409487790599</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2882130157843811</v>
+        <v>0.2903625481489597</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>55</v>
@@ -11268,19 +11268,19 @@
         <v>57100</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>44449</v>
+        <v>43751</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>72898</v>
+        <v>71411</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2098471578403137</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1633536448646701</v>
+        <v>0.1607870233183022</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2679066453630778</v>
+        <v>0.2624426289838011</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>114</v>
@@ -11289,19 +11289,19 @@
         <v>118378</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>99578</v>
+        <v>100624</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>139458</v>
+        <v>139713</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2211744075918072</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1860479734047473</v>
+        <v>0.18800372688777</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2605597885905423</v>
+        <v>0.2610363347772851</v>
       </c>
     </row>
     <row r="37">
@@ -11318,19 +11318,19 @@
         <v>70944</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>56238</v>
+        <v>57230</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85221</v>
+        <v>86426</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2696211486080365</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2137331540378846</v>
+        <v>0.2175021437411292</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3238813596666079</v>
+        <v>0.3284605562757708</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -11339,19 +11339,19 @@
         <v>65780</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>51563</v>
+        <v>52024</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81776</v>
+        <v>81329</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2417480476599184</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1894992738348057</v>
+        <v>0.1911915567732216</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3005331954232048</v>
+        <v>0.2988894515341238</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>132</v>
@@ -11360,19 +11360,19 @@
         <v>136724</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>115935</v>
+        <v>115052</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>157156</v>
+        <v>158461</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.255450781599905</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2166098632250298</v>
+        <v>0.214959546151534</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2936258181499768</v>
+        <v>0.2960641113477108</v>
       </c>
     </row>
     <row r="38">
@@ -11389,19 +11389,19 @@
         <v>90520</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>76504</v>
+        <v>75506</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>107115</v>
+        <v>106743</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3440201117325714</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.290752927228147</v>
+        <v>0.2869620545277731</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4070925919484884</v>
+        <v>0.4056789460867958</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>107</v>
@@ -11410,19 +11410,19 @@
         <v>111802</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>95372</v>
+        <v>96522</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>130079</v>
+        <v>129499</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4108817669999607</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3504980301878848</v>
+        <v>0.3547255160410264</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4780506198740297</v>
+        <v>0.4759196792889044</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>199</v>
@@ -11431,19 +11431,19 @@
         <v>202322</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>180895</v>
+        <v>182497</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>225014</v>
+        <v>229972</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3780118156220535</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.337979602332079</v>
+        <v>0.3409724716567556</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4204085010720186</v>
+        <v>0.4296733722592138</v>
       </c>
     </row>
     <row r="39">
@@ -11535,19 +11535,19 @@
         <v>23299</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14061</v>
+        <v>14533</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>36006</v>
+        <v>35162</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03569224143155491</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02154011012741328</v>
+        <v>0.02226294636606908</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0551574403142857</v>
+        <v>0.05386448776074281</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>13</v>
@@ -11556,19 +11556,19 @@
         <v>13511</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7307</v>
+        <v>7862</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22571</v>
+        <v>23587</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0195753505754654</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01058743844713564</v>
+        <v>0.0113915676911741</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03270361224530815</v>
+        <v>0.03417500006705691</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>34</v>
@@ -11577,19 +11577,19 @@
         <v>36810</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>26188</v>
+        <v>26389</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>50613</v>
+        <v>50220</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02740935067471708</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01950023962805105</v>
+        <v>0.0196499692709043</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03768782740121407</v>
+        <v>0.03739491726070748</v>
       </c>
     </row>
     <row r="41">
@@ -11606,19 +11606,19 @@
         <v>31984</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>22271</v>
+        <v>22100</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>46601</v>
+        <v>45087</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04899679153553615</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03411797021505367</v>
+        <v>0.03385587375593629</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07138910482911862</v>
+        <v>0.06907013807729254</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>35</v>
@@ -11627,19 +11627,19 @@
         <v>36771</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26368</v>
+        <v>25354</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>50177</v>
+        <v>50054</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05327658898940492</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03820494951730311</v>
+        <v>0.03673485524985332</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07270089652689489</v>
+        <v>0.07252266379541357</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>64</v>
@@ -11648,19 +11648,19 @@
         <v>68755</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>53794</v>
+        <v>52781</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>88757</v>
+        <v>86182</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05119629112192157</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04005651684129756</v>
+        <v>0.03930172369651653</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06609075940552932</v>
+        <v>0.06417332593881145</v>
       </c>
     </row>
     <row r="42">
@@ -11677,19 +11677,19 @@
         <v>126000</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>104342</v>
+        <v>106461</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>148570</v>
+        <v>147337</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1930212763417252</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1598437542896736</v>
+        <v>0.1630884265521024</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.22759632790448</v>
+        <v>0.2257075855045137</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>114</v>
@@ -11698,19 +11698,19 @@
         <v>118924</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>100349</v>
+        <v>100607</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>139738</v>
+        <v>140074</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1723087009938911</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1453942902845279</v>
+        <v>0.1457686889786985</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.202465478019379</v>
+        <v>0.2029525049085324</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>220</v>
@@ -11719,19 +11719,19 @@
         <v>244924</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>216397</v>
+        <v>217293</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>277519</v>
+        <v>277014</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.182376543407143</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1611341502708485</v>
+        <v>0.1618018642438493</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2066476562652493</v>
+        <v>0.2062715410631116</v>
       </c>
     </row>
     <row r="43">
@@ -11748,19 +11748,19 @@
         <v>185825</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>162534</v>
+        <v>162209</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>211391</v>
+        <v>209488</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2846686272994911</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2489878798162129</v>
+        <v>0.2484904527119664</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3238322132750228</v>
+        <v>0.3209182939520839</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>176</v>
@@ -11769,19 +11769,19 @@
         <v>185698</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>163282</v>
+        <v>160774</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>210318</v>
+        <v>208754</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2690567048744939</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.236578635202455</v>
+        <v>0.2329442358845912</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3047280103452246</v>
+        <v>0.3024627785028818</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>342</v>
@@ -11790,19 +11790,19 @@
         <v>371523</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>339254</v>
+        <v>339186</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>409869</v>
+        <v>405742</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2766452529957791</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2526170732393024</v>
+        <v>0.2525661879911088</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3051984434456579</v>
+        <v>0.3021251487318858</v>
       </c>
     </row>
     <row r="44">
@@ -11819,19 +11819,19 @@
         <v>285669</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>260460</v>
+        <v>261737</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>312534</v>
+        <v>314048</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4376210633916927</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3990029980104335</v>
+        <v>0.4009589856845795</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4787747712501558</v>
+        <v>0.4810942961481203</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>307</v>
@@ -11840,19 +11840,19 @@
         <v>335278</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>308377</v>
+        <v>310698</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>359755</v>
+        <v>361873</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4857826545667447</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4468056603752474</v>
+        <v>0.4501689067722265</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5212460800412088</v>
+        <v>0.5243152685025201</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>562</v>
@@ -11861,19 +11861,19 @@
         <v>620947</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>581492</v>
+        <v>583579</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>657964</v>
+        <v>661892</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4623725618004392</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4329932575520263</v>
+        <v>0.434547079342577</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4899356902122682</v>
+        <v>0.4928607253295839</v>
       </c>
     </row>
     <row r="45">
@@ -11965,19 +11965,19 @@
         <v>9019</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4117</v>
+        <v>4020</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>17213</v>
+        <v>16778</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01159900753185676</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005294235620746511</v>
+        <v>0.00516924975994852</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02213566800424072</v>
+        <v>0.02157732044709311</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>12</v>
@@ -11986,19 +11986,19 @@
         <v>12852</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6984</v>
+        <v>6957</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>21976</v>
+        <v>23987</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01562584398802606</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008491175716672092</v>
+        <v>0.008458810876523911</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0267193485472986</v>
+        <v>0.02916429062323778</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -12007,19 +12007,19 @@
         <v>21871</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13900</v>
+        <v>13687</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>33899</v>
+        <v>32715</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01366888226347372</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008686915146208438</v>
+        <v>0.008554266816432296</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02118613986860412</v>
+        <v>0.02044609628787927</v>
       </c>
     </row>
     <row r="47">
@@ -12036,19 +12036,19 @@
         <v>16072</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8408</v>
+        <v>8539</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25684</v>
+        <v>26755</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02066830157897741</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0108123358089563</v>
+        <v>0.01098090528642733</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03302969664236153</v>
+        <v>0.03440761427218208</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>15</v>
@@ -12057,19 +12057,19 @@
         <v>16124</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9100</v>
+        <v>9467</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25767</v>
+        <v>26500</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01960487539285984</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0110637914407243</v>
+        <v>0.01151096758811572</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03132943020635726</v>
+        <v>0.03221994199306218</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>29</v>
@@ -12078,19 +12078,19 @@
         <v>32196</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>21497</v>
+        <v>21729</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>46928</v>
+        <v>45883</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02012167918307348</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01343499761293585</v>
+        <v>0.01358042797464137</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0293288213770078</v>
+        <v>0.02867593547228054</v>
       </c>
     </row>
     <row r="48">
@@ -12107,19 +12107,19 @@
         <v>82103</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>65298</v>
+        <v>66672</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>98623</v>
+        <v>100596</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.105585778021151</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08397431011507003</v>
+        <v>0.08574153914131634</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1268305248341214</v>
+        <v>0.1293678853934909</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>78</v>
@@ -12128,19 +12128,19 @@
         <v>83757</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>67322</v>
+        <v>67064</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>103639</v>
+        <v>103244</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1018370790265679</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.08185405750183479</v>
+        <v>0.08154060078569195</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1260111083934903</v>
+        <v>0.1255298578085445</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>158</v>
@@ -12149,19 +12149,19 @@
         <v>165860</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>141101</v>
+        <v>141690</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>190441</v>
+        <v>191119</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1036588715252496</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.08818463754370512</v>
+        <v>0.08855303231167409</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.119021326591857</v>
+        <v>0.1194449575561437</v>
       </c>
     </row>
     <row r="49">
@@ -12178,19 +12178,19 @@
         <v>282861</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>254828</v>
+        <v>255344</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>307801</v>
+        <v>309952</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3637640705792085</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3277128986406251</v>
+        <v>0.3283763854274653</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3958366465718733</v>
+        <v>0.3986024150724102</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>262</v>
@@ -12199,19 +12199,19 @@
         <v>280177</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>252235</v>
+        <v>254653</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>307527</v>
+        <v>307161</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3406563717169792</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3066828937487007</v>
+        <v>0.3096227684777539</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3739098154280788</v>
+        <v>0.373465672547446</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>537</v>
@@ -12220,19 +12220,19 @@
         <v>563038</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>523812</v>
+        <v>524143</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>602816</v>
+        <v>602888</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3518862497386168</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3273703612112441</v>
+        <v>0.3275771986621747</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3767463481406475</v>
+        <v>0.3767910965675415</v>
       </c>
     </row>
     <row r="50">
@@ -12249,19 +12249,19 @@
         <v>387541</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>358847</v>
+        <v>360749</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>413931</v>
+        <v>415199</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4983828422888063</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4614824553683778</v>
+        <v>0.4639291687931532</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5323214227004477</v>
+        <v>0.533952497170241</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>385</v>
@@ -12270,19 +12270,19 @@
         <v>429552</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>401252</v>
+        <v>399724</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>462460</v>
+        <v>456349</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.522275829875567</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4878664960089666</v>
+        <v>0.4860091049742481</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5622869073373613</v>
+        <v>0.5548576097246213</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>756</v>
@@ -12291,19 +12291,19 @@
         <v>817093</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>777726</v>
+        <v>774643</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>860669</v>
+        <v>859473</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5106643172895865</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4860611269634925</v>
+        <v>0.4841343535026031</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5378983212808813</v>
+        <v>0.5371509957358713</v>
       </c>
     </row>
     <row r="51">
@@ -12395,19 +12395,19 @@
         <v>86511</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>68893</v>
+        <v>69611</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>108422</v>
+        <v>106855</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02553795627513577</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.020337140505426</v>
+        <v>0.02054899815212028</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03200612103429728</v>
+        <v>0.03154358814426281</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>70</v>
@@ -12416,19 +12416,19 @@
         <v>71497</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>56603</v>
+        <v>57960</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>90408</v>
+        <v>90999</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02020437064516895</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01599537577803046</v>
+        <v>0.01637881436407349</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02554826051461542</v>
+        <v>0.0257151624050153</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>150</v>
@@ -12437,19 +12437,19 @@
         <v>158009</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>134105</v>
+        <v>133610</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>183716</v>
+        <v>183457</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02281296207392303</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01936174535874962</v>
+        <v>0.01929029612627174</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.0265245362209051</v>
+        <v>0.02648711317041092</v>
       </c>
     </row>
     <row r="53">
@@ -12466,19 +12466,19 @@
         <v>129441</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>108868</v>
+        <v>107483</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>153428</v>
+        <v>153870</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.03821071613036872</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03213761654315784</v>
+        <v>0.03172882796801684</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.04529168925787814</v>
+        <v>0.04542230134619528</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>111</v>
@@ -12487,19 +12487,19 @@
         <v>115076</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>93796</v>
+        <v>95647</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>136030</v>
+        <v>140442</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.03251912873288144</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02650580402215062</v>
+        <v>0.02702864148403138</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03844048740931931</v>
+        <v>0.03968728904914707</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>232</v>
@@ -12508,19 +12508,19 @@
         <v>244517</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>213832</v>
+        <v>211499</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>275736</v>
+        <v>277977</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03530281444286083</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03087265247242657</v>
+        <v>0.03053574445137991</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03981022716471136</v>
+        <v>0.04013382895466112</v>
       </c>
     </row>
     <row r="54">
@@ -12537,19 +12537,19 @@
         <v>460293</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>416395</v>
+        <v>420332</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>501185</v>
+        <v>510972</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1358777896018827</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1229191987785317</v>
+        <v>0.1240813601443887</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1479491419629751</v>
+        <v>0.1508383206761906</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>386</v>
@@ -12558,19 +12558,19 @@
         <v>401349</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>364179</v>
+        <v>365061</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>439859</v>
+        <v>437584</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1134166460297709</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1029127969643561</v>
+        <v>0.1031620308447116</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1242991327831924</v>
+        <v>0.1236562064647527</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>812</v>
@@ -12579,19 +12579,19 @@
         <v>861642</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>805808</v>
+        <v>810729</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>917802</v>
+        <v>921244</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1244021163432174</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1163409801467331</v>
+        <v>0.1170514221666128</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1325104568448355</v>
+        <v>0.1330074202564567</v>
       </c>
     </row>
     <row r="55">
@@ -12608,19 +12608,19 @@
         <v>1006760</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>951673</v>
+        <v>951635</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1060351</v>
+        <v>1063906</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2971939967077296</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2809323982554021</v>
+        <v>0.2809212866126947</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3130142515783298</v>
+        <v>0.3140636584680546</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>936</v>
@@ -12629,19 +12629,19 @@
         <v>976093</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>914136</v>
+        <v>922216</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1027547</v>
+        <v>1031018</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2758327168151308</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2583246301402446</v>
+        <v>0.2606077520129846</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.290373090096111</v>
+        <v>0.2913541564603697</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1906</v>
@@ -12650,19 +12650,19 @@
         <v>1982852</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1904231</v>
+        <v>1909846</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2058350</v>
+        <v>2066708</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2862802572693368</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2749290175509899</v>
+        <v>0.2757396747430597</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2971804915515657</v>
+        <v>0.2983871142271937</v>
       </c>
     </row>
     <row r="56">
@@ -12679,19 +12679,19 @@
         <v>1704546</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1642487</v>
+        <v>1640693</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1754959</v>
+        <v>1763983</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5031795412848833</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4848599744140743</v>
+        <v>0.4843301423227854</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5180613066240835</v>
+        <v>0.5207252865172145</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1830</v>
@@ -12700,19 +12700,19 @@
         <v>1974697</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1912760</v>
+        <v>1912426</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2032909</v>
+        <v>2037075</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5580271377770479</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.540524434902149</v>
+        <v>0.5404298597846448</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.574477043031777</v>
+        <v>0.5756542990244946</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>3458</v>
@@ -12721,19 +12721,19 @@
         <v>3679244</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>3603466</v>
+        <v>3592238</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>3765397</v>
+        <v>3756465</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.5312018498706619</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.5202611533007566</v>
+        <v>0.5186400888946513</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.5436404798882454</v>
+        <v>0.5423508678183859</v>
       </c>
     </row>
     <row r="57">
